--- a/data/ground_truth_test2.xlsx
+++ b/data/ground_truth_test2.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\ScottFerrier\Desktop\LLM-Complaint-Summary-Test\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C5EDA89F-DAE6-4B11-BD65-655D9B05A983}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B87317BA-0CC7-4E90-ABE3-D59FE88BE6C3}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-93" yWindow="-93" windowWidth="25786" windowHeight="13866" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -25,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="278" uniqueCount="130">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="222" uniqueCount="104">
   <si>
     <t>case_id</t>
   </si>
@@ -147,18 +147,9 @@
     <t>Section 12(a)(2) of the Securities Act</t>
   </si>
   <si>
-    <t>cand_22_cv_00105</t>
-  </si>
-  <si>
-    <t>A class of shareholders alleges that Talis Biomedical Corporation (“Talis”) and various current and former Talis officers and board members misled the investing public about Talis’s ability to bring its first product—a molecular diagnostic platform for COVID tests called the “Talis One”—to market. Plaintiffs allege that defendants misled investors about Talis’s initial application for an Emergency Use Authorization (“EUA”) from the Food and Drug Administration (“FDA”); the accuracy and functionality of the Talis One; and Talis’s ability to manufacture the Talis One on a commercial scale within projected timelines. Plaintiffs allege that defendants made numerous false and misleading statements and omissions in connection with Talis’s February 2021 initial public offering (“IPO”) and in post-IPO filings with the Securities and Exchange Commission (“SEC”), as well as during quarterly investor calls from March 2021 through March 2022. Defendants move to dismiss the consolidated complaint (“CC”), asserting that Talis consistently disclosed that it faced extraordinary circumstances in bringing its first product to market, including supply-chain and manufacturing challenges arising from the COVID pandemic; uncertainty regarding FDA approval of an EUA; challenges associated with launching a new instrument system and COVID test simultaneously; and difficulties building and scaling complex manufacturing processes operated by third-party contractors. Defendants contend, among other things, that none of the challenged statements were false or misleading when made, that plaintiffs failed to plead fraud with particularity, and that many of the statements are inactionable corporate optimism, forward-looking statements, or opinions. Talis is a biotechnology company founded in 2010 to develop point-of-care (“POC”) diagnostic tests for infectious diseases. Talis developed the Talis One System, a diagnostic platform consisting of single-use test cartridges that prepare and store patient samples, a box-shaped instrument that analyzes the samples, and software. In 2018, Talis was developing rapid POC diagnostic tests for sexually transmitted infections such as chlamydia and gonorrhea. After the onset of the COVID pandemic in early 2020, Talis abandoned its original focus on STI testing and, by summer 2020, began developing a molecular test for COVID-19. Talis’s COVID test was expected to be the source of substantially all of Talis’s initial revenue. By late 2020, Talis moved toward conducting an IPO. Plaintiffs allege that defendants were motivated to do so because Talis was required to issue a “going concern” warning in October 2020. Talis’s first draft registration statement stated that recurring losses from operations and negative cash flows raised substantial doubt about its ability to continue as a going concern. Talis also sought to capitalize on a rapidly closing window to sell a new COVID test before demand cooled due to FDA approval of COVID vaccines and before competing tests captured the market. To do so, Talis needed to persuade investors that its product produced fast, accurate, reliable results and could be manufactured at scale. Talis conducted its IPO on February 11, 2021, offering shares at $16 per share and raising approximately $253.9 million. Plaintiffs allege that the Registration Statement was false and misleading because Talis was not capable of producing the Talis One at scale, the Talis One was non-functional due to design issues, and Talis had mishandled its crucial EUA application. When Talis pivoted from STI testing to COVID testing, it substantially accelerated its timeline for bringing the Talis One to market. According to former employees, absent COVID, the original STI cartridge was not expected to enter production until 2022. Plaintiffs allege that Talis did not have a realistic manufacturing timeline and that production was plagued by significant problems. Former employees described overly aggressive timelines, inadequate staffing, lack of coherent planning, and a culture that downplayed legitimate engineering concerns. According to these accounts, moving from prototype to full-scale production was not feasible at the time of the IPO, supply-chain issues were ignored, known cartridge leakage problems persisted for over a year, and internal production targets were missed. Plaintiffs further allege that Talis lacked contingency planning, failed to build scheduling buffers, and could not realistically produce cartridges at the volumes publicly projected. Despite this, the Registration Statement stated that Talis had ordered thousands of instruments and that automated cartridge manufacturing lines capable of producing one million cartridges per month were scheduled to come online in early 2021 and scale through the year. Plaintiffs allege that the Talis One suffered from serious design flaws and a high invalid test rate, meaning tests frequently failed to yield usable results. According to former employees, these problems were known internally before the IPO and stemmed from poor coordination between engineering and assay development teams, insufficient pre-testing, and cartridge design issues that compromised detection limits. Despite this knowledge, the Registration Statement touted the Talis One as highly accurate and reliable, while only generally warning that diagnostic tests may contain errors or reliability issues, without disclosing the known high invalid rates. Talis was required to obtain an EUA from the FDA before marketing or selling the Talis One, and obtaining an EUA was also required under a contract Talis received from the National Institutes of Health. Talis submitted its first EUA application shortly before the IPO. Plaintiffs allege that by that time the EUA process was well established and that FDA guidance required the use of a high-sensitivity comparator assay when submitting comparative performance data. Plaintiffs allege that Talis used a weak comparator assay, contrary to FDA guidance, rendering the submission deceptive. The Registration Statement nonetheless touted favorable test performance metrics and disclosed that the FDA had requested additional information during preliminary review. Talis’s Offering Documents included numerous risk disclosures addressing uncertainty in obtaining an EUA, lack of prior commercialization experience, reliance on third-party manufacturers, incomplete automated assembly lines, manufacturing scale-up risks, quality issues, and the possibility of performance problems or defects. On March 8, 2021, Talis disclosed that the FDA had indicated it could not ensure that the comparator assay used in the initial EUA submission had sufficient sensitivity. Talis withdrew its initial application and announced plans to pursue a new EUA using a different comparator assay. Plaintiffs allege this disclosure caused a significant decline in Talis’s share price. Talis later submitted a second EUA application, reported positive validation data, and ultimately received FDA authorization in November 2021. Plaintiffs do not challenge statements related to the second EUA application. Plaintiffs’ Exchange Act claims focus on statements made between March 2021 and March 2022, during which they allege Talis continued to mislead investors by touting manufacturing readiness and strong results despite ongoing production delays, design flaws, and high invalid rates. Plaintiffs challenge statements by senior management claiming readiness to ship product promptly upon EUA approval and describing manufacturing lines as being in the “final stages of validation.” Plaintiffs allege these statements lacked factual basis and were contradicted by internal knowledge that production lines were not validated, yields were insufficient, and invalid rates remained unacceptably high. In August 2021, Talis announced delays, a controlled launch strategy, and phased manufacturing deployment, while also making optimistic statements about progress. Plaintiffs allege these optimistic statements were misleading. Shortly thereafter, CEO Coe abruptly departed. Following FDA approval of the second EUA, Talis announced further leadership changes and a delayed, limited product rollout. Plaintiffs allege these events reflected deeper, undisclosed manufacturing and design failures. The Exchange Act class period ends on March 15, 2022, when Talis disclosed that it had not begun its phased launch due to manufacturing challenges, initiated a manufacturing review, engaged external consultants, laid off a significant portion of its workforce, and acknowledged that yields, consistency, and invalid test rates were not sufficient to support commercialization. Plaintiffs allege that these disclosures revealed that Talis’s prior statements had been false or misleading and that, after months of unmet promises and no viable product, the market largely abandoned Talis, with its stock price collapsing by mid-2022.</t>
-  </si>
-  <si>
     <t>Section 15 of the Securities Act</t>
   </si>
   <si>
-    <t>Section 10(b) of the Exchange Act</t>
-  </si>
-  <si>
     <t>cand_22_cv_02094</t>
   </si>
   <si>
@@ -190,15 +181,6 @@
   </si>
   <si>
     <t>According to Plaintiffs’ first amended complaint (“FAC”), Dkt. No. 27, Defendant Patrizio Vinciarelli is the founder and CEO of Defendant Vicor Corporation, which designs, develops, manufactures, and markets modular power components and power systems for deployment in areas such as high-performance computing, industrial equipment automation, robotics, satellites, and more. Plaintiffs aver that, starting in 2022, Vicor’s stock slid 20% in value when it was revealed that Nvidia, another tech company, would not be using Vicor’s designs in its new artificial intelligence (“AI”) computer chips. Previously, Vicor’s two largest customers had been Nvidia and Google. May 2023, the company was reporting decreased net revenues and accounts receivable—leading Plaintiffs to take short positions on the company’s stock. July 25, 2023, Vicor released its second quarter earnings report, which featured the following statement, attributed to Vinciarelli: Q2 bookings remained weak, ahead of production release of an AI platform with a Lateral Power Distribution Network (‘PDN’) using a 4G Chipset, now expected to ramp in Q4. The same 4G Chipset will support a more adept Lateral-Vertical PDN, enabling a reduction of nearly 100W in total power consumption at heavy workloads and superior processor performance.  (emphasis added). Later that day, Vinciarelli spoke to investors and analysts on an earnings call. One analyst asked whether the expected “ramp” was from a new customer. Vinciarelli responded: Cf It’s an existing customer. It’s a new generation for the existing customer. And i it’s a chipset that can be deployed either in a lateral PDN, which is substantially i handicapped from a power system perspective to the point that it limits power si r delivery, power capability, process of performance, in that it gives rise to large et losses within the copper of the substrate to the GPU, that it powers. It gives rise to further losses within the system itself, or into the limitations of lateral power th delivery applied at the 1,000 amp level. With a 4G chipset, we can enable a lateral i n U t r o solution with the same handicaps, or with a vertical element using the same chipset, a lateral vertical solution, which is unique, highly differentiated, in that it improves system efficiency by about 10%. And it improves a number of limitations relating to process of performance. When another analyst inquired about the “lateral vertical opportunity” described in the press release, Vinciarelli elaborated that, “Based on customer input expectation, as of now . . . the lateral implementation will go first. And that’s the one we’re anticipating for Q4 ramp. I can’t tell you when the lateral vertical was going to production, but my expectation is that it would be after the lateral.” The analyst asked, “is this going to be a significant customer or is this more of an incremental volume that you’re going to expect?” Vinciarelli answered, “This is a significant customer.” Plaintiffs aver that the above statements—the press release, the earnings call statement about an existing customer, and the related statement about the customer being a significant one— “gave the unmistakable impression that a concrete deal had been reached for an existing—not speculative—large customer of a significant number of purchases in the fourth quarter, which would have reversed Vicor’s trend of declining and weak sales.” The market apparently reacted: whereas stocks closed on July 25, 2023 at $59 per share, they opened the next morning at $77.40 and closed at $93.70—after more than 4.5 million shares had changed hands, 5x more than average. Plaintiffs, who had shorted Vicor stock, claim that they were forced to cover their positions at a significant loss of $35 per share on average, plus approximately $15 per share they think they would have realized but for the need to cover.Everything changed a few months later, when Vicor held its third quarter earnings call in October 2023. Asked about the significant, existing customer that it had touted as driving the expected fourth quarter ramp, Vicor’s VP of Sales Phil Davies said “we’re having substantial conversations now with customers that will diversify us away from the two big guys that we’ve been doing business with[.]” Another analyst chimed in, asking, “with the one major customer though, do they have two different designs with you? . . . two different GPUs that are ee going to be used, in one using lateral, the other’s going to be using lateral-vertical?” and th Vinciarelli responded by addressing the analyst by name: “John, we’re not going to talk about any one customer. I’m sorry but bear with us, that’s not a level of specificity we want to get involved with.” The analyst, John Dillon from Goldman Sachs, reiterated the question about “a major GPU customer,” and Davies answered him as follows: So what we talked about there was that we have lateral and lateral-vertical solutions for not just one customer. We are bringing that solution forward, and we have customers looking at that, both of those solutions. And certainly, the number of customers looking at lateral deployment is a little bit higher than the number with lateral-vertical, but we have both. . A different analyst later chimed in about the “major customer,” asking about the “Dynamics relative to your last call,” and Vinciarelli said, “I think I made clear that we really don’t want to go into the level of detail. And to be clear, well, I appreciate the reason for the interest, the curiosity, it’s really got very little to do with Vicor’s opportunity in the medium and long term. And that’s what we’re really focused on.”  After the October 2023 call, investors fled. Vicor stock dropped over 20% and closed at $53.19 per share that day; the next day, trading opened at $39.01. Nearly a year later—and after the filing of the instant litigation—Vicor put out a press release explaining that its July 2023 announcement was true: it had “booked” $30 million in “non-cancellable, non-returnable” orders from the customer, and its statement reflected what Vicor “understood to be” the customer’s “allocation for a new program.”  Plaintiffs assert two claims: one claim under Section 10(b) of the Exchange Act and Rule 10b-5(b), and a separate claim (against Vinciarelli personally) under Section of the Exchange Act. As to the first claim, Plaintiffs aver manipulation or deception that was material and “in connection with” the purchase or sale of securities, made with scienter in a way that caused damages. As to the second claim, Plaintiffs aver that Vinciarelli acted as the controlling person of Vicor and made misrepresentations with scienter such that he is liable personally as a control person.</t>
-  </si>
-  <si>
-    <t>cand_3_21-cv-09767</t>
-  </si>
-  <si>
-    <t>Robinhood is a financial services company headquartered in Menlo Park, California. It provides a trading platform through which customers access financial markets using an application and user interface. Robinhood’s primary customer base is retail investors, many of whom are first-time investors. Its core products include the ability to trade U.S. stocks and exchange-traded funds (“ETFs”), American Depository Receipts (“ADRs”), and cryptocurrencies. Robinhood is a commission-free broker that earns revenue through “payment for order flow” (“PFOF”), meaning it routes customer transactions to market makers in exchange for payments. For cryptocurrency trading, Robinhood earns “transaction rebates.” Collectively, these revenues are referred to as “transaction-based revenue,” which comprised the majority of Robinhood’s revenue (75% in FY 2020 and 80.5% in Q1 2021). On July 30, 2021, Robinhood conducted an initial public offering (“IPO”), offering millions of shares of common stock at $38 per share and raising over $2 billion. Prior to the IPO, Robinhood issued a registration statement and prospectus (the “Offering Documents”). Plaintiffs allege the Offering Documents contained materially false and misleading statements and omitted material information required to be disclosed, in violation of Sections 11 and 12 of the Securities Act of 1933 and Items 105 and 303 of Regulation S-K. Robinhood’s IPO followed a series of events in early 2021 known as the “meme stock” and “Dogecoin” events. From mid-January to early February 2021, the prices of GameStop, AMC, and other stocks surged dramatically, driven in part by retail investors coordinating on forums such as Reddit’s r/WallStreetBets to squeeze short sellers. Plaintiffs allege that after the meme-stock frenzy subsided, trading volume fell from the extraordinary levels seen during that period. As the meme-stock event waned, Robinhood experienced a significant increase in cryptocurrency trading tied to Dogecoin, whose price surged in early 2021 after gaining “cult status” online. Plaintiffs allege that Robinhood saw a large spike in crypto trading and related revenue during the Dogecoin rally, including a substantial increase in crypto trading revenue compared to the prior quarter, and describe these levels as “all-time highs.” Plaintiffs further allege that meme-stock trading volumes declined after early Q1 2021 and that the Dogecoin-related crypto trading spike likewise fell throughout Q2 2021. Plaintiffs filed their original class action complaint on December 17, 2021 under Sections 11 and 12 of the Securities Act, later filed a first amended complaint, and alleged that the Offering Documents contained materially false and misleading statements and omissions. Robinhood moved to dismiss, arguing that its business strategy and risk disclosures were not false or misleading and that the Offering Documents accurately disclosed its financial performance. The Court granted the motion with leave to amend, finding Plaintiffs failed to plead a Securities Act violation because they did not allege inaccuracies in the key performance indicators (“KPIs”) reported in the Offering Documents. The Court noted that SEC regulations generally do not require disclosure of incomplete intra-quarter results, and that such disclosure would be required only if necessary to make the statements made not misleading. The Court concluded the complaint lacked contextual allegations showing that the alleged May–July 2021 declines were unusual or indicative of larger future trends, and also found that alleged declines in cryptocurrency trading did not show unique, company-specific declines as opposed to broader industry trends known to reasonable investors. The Court also held that risk disclosures about potential downward trends and statements of corporate optimism undermined liability based on omission and that alleged business strategy statements were too vague to be actionable. The Court granted leave to amend to add allegations providing specific contextual information demonstrating that the pre-IPO KPI and cryptocurrency trading declines were extraordinary, indicative of broader trends known to management, materially impacted future performance, and were not adequately disclosed. In the dismissed first amended complaint, Plaintiffs alleged Robinhood marketed a strategy focused on young and non-traditional investors and represented that it would emphasize safety, reliability, and responsiveness to customer needs, but had allegedly abandoned those principles by the time of the IPO. Plaintiffs pointed to alleged security issues, customer feedback failures, fraud issues, and platform disruptions, and argued this shift was reflected in declining KPIs from May to July 2021 that were omitted from the Offering Documents. Plaintiffs alleged that Robinhood’s historical KPIs showed steady growth through 2020, but that in the months immediately preceding the IPO, certain metrics began declining, including monthly active users, assets under custody, and average revenue per user, along with a sharp decline in cryptocurrency trading volume. Plaintiffs alleged Robinhood could analyze performance data in real time through internal tools and that executives discussed declines at weekly meetings, yet the Offering Documents omitted this information. In the second amended complaint, Plaintiffs allege the Offering Documents were misleading because they misrepresented Robinhood’s condition at the time of the IPO. Plaintiffs allege Robinhood portrayed itself as successfully executing a growth strategy for an untapped market of small and non-traditional investors and relied on historical performance data to show it was positioned for continued growth, but that by the time of the IPO Robinhood’s “core fundamentals” had changed. Plaintiffs allege that in 2021 Robinhood’s revenue became driven less by conventional trading in stocks and options and more by speculative “fad trading” in meme stocks and the cryptocurrency Dogecoin, and that this shift was not sustainable and was reflected in declining intra-quarter KPIs. Plaintiffs allege the Offering Documents included charts and tables describing historical revenue and transaction-based revenue sources and growth in metrics such as monthly active users and net cumulative funded accounts through Q1 2021, but that these disclosures were rendered false or misleading by omitting material facts about changes in revenue composition and pre-IPO KPI declines. Plaintiffs also allege that risk factor disclosures and warnings were inadequate. Plaintiffs allege that by the time of the IPO, cryptocurrency trading revenue had become a principal source of revenue, but investors were not informed because Robinhood did not provide the same type of revenue breakdown for preliminary Q2 metrics as it had for prior quarters. Plaintiffs further allege that equities trading revenue and volume declined significantly from Q1 to Q2 and into early Q3, and that cryptocurrency revenue and trading volume also declined sharply from Q2 into early Q3. Plaintiffs allege that KPIs—including monthly active users, assets under custody, and average revenue per user—declined in the months before the IPO in a manner that was unusual compared to historical trends, and that these declines, viewed together and alongside alleged revenue declines, were material. Plaintiffs allege monthly active users fell roughly 19% from May to July 2021 in consecutive declines that were rare in magnitude; assets under custody declined and contrasted with prior steady increases; average revenue per user fell materially and was not provided as a preliminary estimate for Q2; and net cumulative funded accounts remained largely flat from May through July 2021.</t>
-  </si>
-  <si>
-    <t>Section 12(a) of the Securities Act</t>
   </si>
   <si>
     <t>cand_3_22-cv-00956</t>
@@ -229,81 +211,6 @@
     <t>The Court recites the relevant facts as provided in the complaint and corroborated by a number of confidential witnesses, taking them to be true and viewing them in the light most favorable to the Plaintiff. Anktiva is a biologic drug, which means that it is produced from living organisms. Because the process can involve microorganisms, plant cells, or even animal cells, manufacturing biologic products is an especially sensitive process, and producing biologic products “at scale requires a series of highly-technical steps . . . to ensure a consistent end product free from impurities.” Due to the sensitivity of this process, “even minor deviations from normal manufacturing processes can result in significant changes in product composition.” Any deviation must “be recorded and justified.”  The FDA will not approve a biologic product if its production fails to comply with the FDA’s minimum standards for drug manufacturing, otherwise known as current good manufacturing practices (“cGMP”). Thus, in order to introduce a biologic drug to the market, a company must file a Biologics License Application (“BLA”). BLA is composed of “data and supporting materials collected in clinical trials, along with other .  . . information on the manner in which the product is manufactured.” This includes “proposed process and protocols for manufacturing at scale, [and] also must include data generated in connection with previously-produced process performance qualification (‘PPQ’) batches using the stated manufacturing processes and equipment.” These qualification studies serve “to validate that the proposed manufacturing process is capable of reproducing results within predetermined specifications at commercial scale.” Id. These studies are further corroborated by an FDA inspector’s pre-approval visit to the manufacturing facility. The inspector “observ[es] the site in operation but also [reviews] appropriate records at the facility reflecting past activities.” At the conclusion of an inspection, the inspector may issue a “Form 483,” which “memorialize[s] significant deficiencies observed during the inspection that, in the judgment of the inspector[], constitute violations of FDA regulations, including cGMP.” “After completing its review, the FDA will either approve the BLA or send the sponsor a complete response letter (‘CRL’). CRL outlines any issues identified by the FDA during the review that prevent approval of the BLA in its current form and, where possible, recommend actions that a sponsor may take to remedy the issues or otherwise position the application for approval.”  ImmunityBio “was formed in connection with a merger between two clinical-stage biopharmaceutical companies controlled by Defendant Soon-Shiong on March 9, 2021,” and submitted its BLA for Anktiva to the FDA on May 23, 2022, iMay 11, 2023, the FDA rejected the BLA.  Which came as a surprise to most of the company’s shareholders. Anktiva’s Phase clinical trials had been “impressive,” and in the year leading up to the rejection, ImmunityBio had repeatedly touted its manufacturing capabilities. For instance, ImmunityBio had asserted numerous times in press releases and SEC-mandated disclosures that “[t]he company ha[d] established GMP manufacturing capacity at scale.” It asserted that for its “Anktiva of product candidate, [it had] contracted with a multi-national biologics manufacturer with multiple cGMP-compliant facilities.” And it asserted that those “facilities ha[d] robust process development and validation and quality oversight.” But shareholders learned on May 11, 2023, that the FDA had rejected Anktiva’s BLA because of deficient manufacturing practices. To shareholders, the news was shocking. But to company executives, the rejection was nothing more than “business disappointment.” E. For the signs of manufacturing woe had appeared to leadership more than two years prior, as early as March of 2021. ImmunityBio learned of these deficiencies from its contract manufacturing organization (“CMO”), AGC Biologics, Inc., which manufactured the active ingredient in Anktiva. AGC had originated the technique for producing the active ingredient, and ImmunityBio had continued to entrust the process to AGC, as “it would [have] be[en] exceedingly expensive and risky to transfer th[e] technology in-house, particularly with Phase clinical trials . . . .” Despite its use of a CMO, ImmunityBio remained “ultimately responsible for the manufacture” of Anktiva, a fact it reminded investors of in its SEC disclosures. ImmunityBio maintained a “Quality Agreement” with AGC, whereby AGC notified the company of the “findings of any inspection by a government agency,” including any deviations. Three times, in the two years preceding the BLA’s rejection, ImmunityBio learned that FDA inspectors had observed conditions at the Anktiva facility that violated federal law. AGC was first cited for manufacturing deficiencies in March of 2021 during a non-routine FDA inspection. The inspection resulted in a sixteen-item Form 483 that identified numerous deficiencies in Anktiva’s production, including failures “on the part of AGC’s quality unit to adequately investigate deviations, inadequate oversight of manufacturing procedures on the part of the quality unit, lack of adequate documentation for quality control testing, poorly qualified and validated manufacturing processes, and gaps in record keeping such that inspectors could not determine whether manufacturing was operating in a state of control.” In response, AGC “committed to implement a CAPA,” a corrective and preventative action, to address the concerns raised in the Form 483. Id. AGC was cited again for manufacturing deficiencies four months later, in July of 2021. The inspection, which was routine, resulted in a three-item Form 483. The inspector observed that “the firm either had deficient procedures or failed to follow existing procedures for sanitation, cleaning, and maintenance.” Id. Additionally, the FDA inspector again “condemned AGC’s failure to document conclusions or follow up actions in response to deviations.”Following the receipt of the two Forms 483, ImmunityBio bolstered its Quality Agreement with AGC, requiring that AGC notify ImmunityBio as to any deviation, “even those classified as minor.”  Through the modified Quality Agreement, ImmunityBio learned that “AGC suffered from myriad cGMP problems, including a recurring inability to timely release batch records, close deviations, [or] conduct stability testing, and [a history of] running out of critical reference material needed for testing.” ImmunityBio “began to ‘remind’ AGC at each test window to perform the testing because of the known buildup of misses before the Anktiva BLA,” but “AGC was consistently unable to provide batch records, deviation reports, and stability tests on schedule throughout the Class Period.” These records were “especially ‘important’ to ImmunityBio leadership in 2021 because the results were needed for the Anktiva BLA,” so Defendant Richard Adcock, the CEO of ImmunityBio, began meeting monthly with AGC executives to discuss the delays and other manufacturing deficiencies. Despite leadership’s attention, the issues continued. Even with the addition of costly contract workers, hired and placed by ImmunityBio, AGC “regularly failed” to document departures from written procedures and “regularly failed” to conduct quality control tests.These issues resulted in frequent supply delays for the company’s flagship product that lasted for months.. ImmunityBio nonetheless forged ahead with its plan to submit the Anktiva BLA, which included AGC’s quality control documentation. The FDA notified AGC on November 1, 2022, that in February 2023, it planned to hold a pre-license inspection at the facility used to manufacture Anktiva. The inspection would last “two weeks and involve six inspectors,” which was far more intense than the typical inspection “conducted by one or two inspectors over several days.”ImmunityBio leadership became nervous “upon learning about the scope of the inspection.” Accordingly, they planned a mock inspection for AGC, with extensive involvement from Defendant Adcock. The results were poor. ImmunityBio’s representatives identified several deficiencies in cGMP compliance, including persistent concerns about AGC’s repeated testing delays. These results were presented directly to Defendant Adcock, and ImmunityBio’s leadership was soon “engaged ‘on a very technical level’ with prep for the FDA inspection.” The FDA’s pre-license inspection took place from February 2, 2023, to February 10, 2023. ImmunityBio sent at least six representatives to attend the inspection and settled on a plan to update leadership as to the inspection’s progress.  That plan changed, however, when the FDA observed a number of deficiencies on the very first day of the inspection.  Overnight, Defendant Adcock flew up to Washington to be present for the next several days of the inspection. Id. Defendant Soon-Shiong demanded a personal call at the end of each day to debrief. Id. He further demanded that ImmunityBio employees be allowed in the room with the inspectors, and AGC eventually agreed to have an employee feed information back to ImmunityBio’s leadership in real time  On February 10, 2023, the FDA issued a five-item Form 483. The FDA again cited multiple instances of inadequate deviation management, beginning as early as January 2021. Specifically, the FDA observed that AGC failed to promptly address deviations and that most deviations were closed without documenting any conclusions or the implementations of any CAPA. Id. “[L]ess than forty percent of all deviations since July 2021 were closed on schedule, and eighty investigations remained open at the time of the inspection, including several that were open for two years.” Id. FDA inspectors further identified “deficiencies in data integrity, missing validation for computer systems, and lack of reliability of audit trails.” They concluded that the site “failed in critical sanitation and contamination-management practices,” finding “violations in pest control in the warehouse area, deficient filtration in a clean corridor, and a pool of standing liquid on the solution prep room floor.” And they found that AGC did not follow its own standard operating procedures and that its quality unit failed to adequately oversee manufacturing operations, observing that “for ‘such a critical deviation to occur, quality oversight failed at multiple steps in the process.’” IMay 11, 2023, the FDA issued a CRL rejecting the Anktiva BLA based on “deficiencies relat[ing] to the FDA’s pre-license inspection of the Company’s third-party contract manufacturing organizations,” and ImmunityBio common stock fell $3.43 per share, or 55.14%. On June 30, 2023, Plaintiff filed the instant suit under Section 10(b) and Section 20(a) of the Securities Exchange Act, alleging that Defendants misled investors as to ImmunityBio’s compliance with cGMP in its production of Anktiva. Plaintiff challenges two categories of highly repetitive statements, consisting of sixty-two statements in total, issued at regular intervals between March 10, 2021, and May 10, 2023 Page of The first category involves non-risk-factor statements about GMP manufacturing capacity. Plaintiff argues that these statements were misleading because they suggested that Anktiva was not experiencing GMP difficulties, even though Defendants knew from FDA inspectional observations and Quality Agreements that it was. Those statements, with some variation, are as follows: We have established Good Manufacturing Practice (GMP) manufacturing capacity at scale with cutting-edge cell manufacturing expertise and ready-to- scale facilities, as well as extensive and seasoned research and development (R&amp;D), clinical trial, and regulatory operations and development teams. . . . . For our Anktiva product candidate, we have contracted with a multinational biologics manufacturer with multiple cGMP-compliant facilities in the United States, Europe and Asia for our current clinical trials and future commercial sales, if approved. The facilities have robust process development and validation and quality oversight with high-capacity production suites operating multiple 2,000-20,000L production bioreactors. . . . . “We are pleased the FDA has begun its review, and ImmunityBio is prepared to move rapidly to manufacturing and marketing should the Agency approve our therapeutic for this indication,” said Richard Adcock, President and CEO of ImmunityBio. The second category involves risk-factor statements. Plaintiff argues that these statements were misleading because they portrayed the risk of production difficulties as merely hypothetical, when in fact that risk had already materialized. Those statements, with some variation, are as follows: The manufacture of our product candidates is complex, and we may encounter difficulties in production, particularly with respect to process development, quality control, or scaling up of our manufacturing capabilities. If we or our related parties, or any of our third-party manufacturers encounter such difficulties, our ability to provide adequate supply of our product candidates for clinical trials or our products for patients, if approved, could be delayed or stopped, or we may be unable to maintain a commercially viable cost structure.</t>
   </si>
   <si>
-    <t>ctd-3_24-cv-01727</t>
-  </si>
-  <si>
-    <t>Lovesac is a furniture retailer that sells couches and beanbag chairs. Since judgment has been entered as to Lovesac and it is not the movant for any of the motions addressed in this ruling and order, the Court does not recount claims alleged solely against Lovesac. Ms. Dellomo, a certified public accountant, served as Lovesac’s Chief Financial Officer and Executive Vice President from January 2017 to June 2023 and then worked as a strategic consultant for Lovesac from June 2023 to June 2024. Ms. Um, also a certified public accountant, served as Lovesac’s controller and Vice President from November 2022 to July 2023. There was allegedly at least a two-week delay between the shipment of furniture from the distribution center to customers and the receipt of shipping invoices by Lovesac. To account for this delay, Lovesac allegedly used an accrual process to estimate and record monthly shipping expenses incurred but not yet invoiced, which were later reconciled against actual invoices. During the relevant period, this accounting method was allegedly flawed and inconsistently applied. In April 2023, Lovesac’s finance and accounting group allegedly discovered that last mile shipping expenses for Q1 2024 were significantly higher than budgeted and estimated that approximately $2.2 million in expenses had been improperly recorded in Q1 2024 rather than in FY 2023. On April 23, 2023, Ms. Dellomo allegedly expressed concern that these expenses would cause Lovesac’s Q1 2024 gross margin to be lower than expected. On April 25, 2023, Ms. Um allegedly stated that she could not justify reversing the $2.2 million in shipping expenses as a matter of accounting, and another finance employee allegedly remarked that reversing the expenses would be a “giant black eye” for auditors. That same day, Ms. Um allegedly told a senior member of the financial planning and analysis group that the only way to meet the Q1 2024 gross margin projection was to capitalize the $2.2 million in shipping expenses and amortize them evenly over the remaining three quarters of FY 2024. On April 26, 2023, Ms. Um allegedly reiterated that Lovesac would miss its Q1 2024 gross margin projection unless the shipping expenses were removed from the Q1 2024 results, and she and Ms. Dellomo allegedly decided during a phone call to remove the expenses by capitalizing them in the general ledger and amortizing them over the last three quarters of FY 2024 starting in Q2 2024. After that call, Ms. Um allegedly asked whether this approach would allow Lovesac to meet its Q1 2024 gross margin projection and later made a journal entry capitalizing the $2.2 million as an asset with a plan to spread the expense over the remaining quarters. This accounting allegedly violated Generally Accepted Accounting Principles because the expenses did not provide any future economic benefit. On April 27, 2023, Ms. Dellomo allegedly approved the entry, which reduced Q1 2024 expenses by $2.2 million and deferred the shipping costs to future periods. In a Microsoft Teams message, Ms. Um allegedly stated that she did not feel comfortable with the entry. On June 7, 2023, Lovesac allegedly reported Q1 2024 gross margin to the SEC as originally expected, without reflecting the last mile shipping expenses. Lovesac allegedly filed two materially false and misleading financial reports with the SEC, a Form 10-Q and a Form 8-K, and the accounting treatment also allegedly rendered a previously filed Form 10-K and Form 8-K for FY 2023 misleading. Ms. Dellomo allegedly did not inform Lovesac’s outside auditor about the $2.2 million in shipping expenses and allegedly made false and misleading representations in the management representation letter submitted for Q1 2024. On June 13, 2023, a Lovesac employee reported the journal entry to the outside auditor, triggering an investigation that ultimately led Lovesac to restate its financial statements for FY 2023 and Q1 2024.</t>
-  </si>
-  <si>
-    <t>Securities Act Sections 17(a)(1) and (3)</t>
-  </si>
-  <si>
-    <t>Securities Act Section 17(a)(3)</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 10(b) and Rules 10b-5(a) and (c)</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 10(b) and Rule 10b-5(b)</t>
-  </si>
-  <si>
-    <t>Aiding and abetting violations of Exchange Act Section 10(b) and Rule 10b-5</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 13(b)(5)</t>
-  </si>
-  <si>
-    <t>Exchange Act Rule 13b2-1</t>
-  </si>
-  <si>
-    <t>Section Exchange Act Rule 13b2-2</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 13(a) and Rules 12b-20, 13a-1, 13a-11, and 13a-13</t>
-  </si>
-  <si>
-    <t>Aiding and abetting violations of Exchange Act Section 13(a) and Rules 12b-20, 13a-1, 13a-11, and 13a-13</t>
-  </si>
-  <si>
-    <t>Exchange Act Rule 13a-14</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 13(b)(2)(A)</t>
-  </si>
-  <si>
-    <t>Aiding and abetting violations of Exchange Act Section 13(b)(2)(A)</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 13(b)(2)(B)</t>
-  </si>
-  <si>
-    <t>Aiding and abetting violations of Exchange Act Section 13(b)(2)(B)</t>
-  </si>
-  <si>
-    <t>dcd-1_23-cv-01599</t>
-  </si>
-  <si>
-    <t>Defendant Binance is a Cayman Islands limited liability company that does business as Binance.com. It has operated the internet-based Binance.com international crypto asset trading platform “[s]ince at least July 2017.” Defendant Zhao founded, owns, and is the Chief Executive Officer of Binance. Also known as “CZ,” Zhao is a Canadian citizen who lives outside of the United States. Defendant BAM Trading Services is a Delaware corporation that does business as Binance.US. It has operated the Binance.US crypto asset internet-based trading platform since 2019. Defendant BAM Management, a Delaware corporation, is the parent of BAM Trading and other affiliated entities. Compl. ¶ 28. When the Binance.US platform launched in 2019, BAM Management was a Cayman Islands company, which was wholly owned by CPZ Holdings Limited, a British Virgin Islands company that Zhao owned and controlled. Zhao now owns eighty-one percent of BAM Management. Zhao served as chairman of the boards of directors of both BAM Trading and of BAM Management until approximately March 2022. Crypto Assets To understand this case, it is appropriate to begin with a description of the assets at issue and the crypto industry in general. A crypto currency is a digital, encrypted, and decentralized medium of exchange, and individual units are often referred to as coins or tokens. They are traded on electronic platforms such as the Binance.com and Binance.US platforms operated by defendants. Crypto assets are transferred and secured using technology known as a “blockchain” or distributed ledger: a database spread across hundreds and even thousands of computer servers that records transactions in digitally recorded data packages called “blocks.” There are a number of different blockchain networks in existence, with Bitcoin and Ethereum being two of the most well-known. Crypto asset trading platforms operate as a central depository for the crypto assets customers deposit or trade on the platforms. Customers’ entitlements are “typically tracked and maintained on the crypto asset trading platform’s internal ledgers,” and platforms usually settle transactions by updating internal records with each investor’s positions. Because transactions on a blockchain are validated by consensus, rather than by a single entity such as a bank, the blockchains supply a decentralized location for recording transactions. As the complaint explains, defendants’ crypto asset trading platforms – Binance.com and Binance.US – “are marketplaces that generally offer a variety of services relating to crypto assets, often including brokerage, trading, and settlement services.” Both platforms permit their customers to purchase and sell crypto assets using other crypto assets or fiat currency – that is, currency issued by a government. One of the concerns underlying this action is that according to plaintiff, Binance.com and Binance.US did not segregate their customers’ crypto assets from other customers’ assets or the firm’s assets. Blockchains use cryptographic techniques to secure the recording of transactions, and like many digital systems, they can be subject to hacks. To validate transactions, then, and to validate the state of the ledger, a blockchain will rely upon a “consensus mechanism,” the method or protocol that will be utilized to agree on which transactions are valid and when and how to update the blockchain. Independent users and “validators” apply the protocol to determine whether they agree if a particular transaction is valid, and if the requisite number of them agree, the transaction is processed and recorded on the blockchain. The two primary consensus mechanisms that blockchains employ are “proof of work” and “proof of stake.” Proof of work, used by the Bitcoin blockchain, involves computers, known as “validator nodes,” that attempt to “mine” a “block” of transactions, in part by solving a complex mathematical problem. The first miner to successfully solve the problem earns the right to update the blockchain and is rewarded with the blockchain’s native crypto asset. Proof of stake, used by the Ethereum blockchain, involves the selection of block validators from the crypto asset holders who have committed or “staked” a minimum number of crypto assets as part of the validation process. Blockchain protocols compensate those participants who validate transactions and add new blocks to the blockchain. The compensation or “rewards” are usually paid in the form of new tokens, and they are funded by various sources, including fees charged to those engaged in transactions on the blockchain or through the blockchain’s creation or “minting” of additional quantities of its native crypto asset. Crypto assets “represented on” their own blockchain are considered “native” to that blockchain, although a blockchain may represent both native and non-native crypto assets.. Crypto assets are typically stored in a “crypto wallet” – software that enables owners to store and manage the cryptographic information necessary to identify and transfer their assets. Crypto wallets allow asset owners to make transactions on the associated blockchains. The wallets provide users with a “public key,” which is the user’s blockchain “address” that can be shared with others, and a “private key,” which operates as a password and is needed to transfer a crypto asset.. Transactions involving the transfer of a crypto asset from one blockchain address to another are called “on-chain” transactions, and those that are only tracked in the internal recordkeeping mechanisms of the platform and do not involve transferring crypto assets from one wallet to another are called “off-chain” transactions.  The complaint focuses on five of defendants’ crypto assets and programs: •“BNB,” which is also called “Binance Coin,” a crypto asset that was launched on the Binance.com platform in 2017. “BUSD,” a Binance “stablecoin” that is “purportedly backed with cash (and cash equivalent) reserves and redeemable on a 1:1 basis for U.S. dollars.” It is “a Binance-branded U.S. Dollar denominated crypto asset on the Ethereum blockchain.”  Binance’s “Simple Earn,” which is marketed as set of “programs that pay interest to investors who lend their crypto assets to Binance for fixed or flexible lengths of time.” Binance’s “BNB Vault,” a program similar to Simple Earn that is limited to BNB holders and described on Binance.com as a “‘BNB yield aggregator’ whereby investors can lend their BNB to Binance to earn investment returns.” BAM Trading’s “Staking Program,” which allows crypto asset owners on the Binance.US platform to pool their assets to collateralize BAM Trading’s validation of transactions on a blockchain, such as Ethereum.</t>
-  </si>
-  <si>
-    <t>Sections 5(a) and 5(c) of the Securities Act</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 5</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 15(a)</t>
-  </si>
-  <si>
-    <t>Exchange Act Section 17A(b)</t>
-  </si>
-  <si>
-    <t>Exchange Act Sections 5, 15(a), and 17A(b)</t>
-  </si>
-  <si>
-    <t>Securities Act Sections 17(a)(2) and (a)(3)</t>
-  </si>
-  <si>
     <t>dcd-1_23-cv-02055</t>
   </si>
   <si>
@@ -361,30 +268,6 @@
     <t>Civil Conspiracy</t>
   </si>
   <si>
-    <t>ilnd-1_20_cv_05593</t>
-  </si>
-  <si>
-    <t>The following allegations are taken as true for purposes of this motion. GoHealth operates a technology-driven health insurance marketplace using a combination of websites and licensed agents to help consumers sign up for health insurance with third-party insurance carriers. Leading up to 2020, GoHealth’s revenue primarily came from commissions paid to GoHealth by insurance Consisting of Centerbridge Partners, L.P.; CCP III AIV VII Holdings, L.P; CB Blizzard Co-Invest Holdings, L.P.; Blizzard Aggregator, LLC; Centerbridge Associates III, L.P.; and CCP III Cayman GP Ltd. carrier partners. In particular, GoHealth concentrated on its partnerships with Humana, Inc. (“Humana”) and Anthem, Inc. (“Anthem”), which made up for 74% of GoHealth’s total revenue for the first fiscal quarter of 2019 (“1Q2019”). (D GoHealth benefitted from its focus on these carriers because they subsidized GoHealth’s marketing costs, paid top-tier commission rates, and were deeply integrated with GoHealth’s technology platform. GoHealth’s internal metrics reflected the benefits of this strategy in part through a ratio representing commission revenue relative to customer acquisition cost (“LTV/CAC”). LTV is a metric consisting of aggregate commissions over the life of all commissionable approved submissions, based on numerous variables, which include commission rates, carrier mix, and policy persistency. The second portion of the ratio, CAC, represents the costs associated with retaining customers including marketing, advertising, customer care, and enrollment expenses. Plaintiffs contend that GoHealth experienced “best-in-class” LTV/CAC up to the first fiscal quarter of 2020 because its partnerships with Humana and Anthem decreased its direct marketing costs per policy. July 2020, the Company filed its registration statement (the “Registration Statement”) with the Securities and Exchange Commission (“SEC”) in advance of its initial public offering (“IPO”). In that statement, GoHealth asserted that it would “focus on strengthening the key drivers of LTV/CAC, including marketing costs…” and that its carrier partners “often supplement [its] marketing and technology investments.” oHealth further stated that its business model would enable it to “rapidly scale while improving [its] unit economies, as measured by LTV/CAC.” In addition, it included that “[a]ttracting new carriers” was “critical to the growth of the business,” and it was “strategically adding carriers,” allowing it to “market more efficiently[.]” (GoHealth also obtained revenue from Medicare Special Needs Plans (“SNPs”), a type of Medicare Advantage plan for individuals falling into certain special needs GoHealth asserted in its Registration Statement that “increasingly adding SNPs” would “maximize the value of [its] customer interactions and marketing spend[.]” The Registration Statement also included forty-five pages of “Risk Factors” for investors. In particular, it warned potential investors that LTVs are estimates based on numerous factors, any one of which could negatively affect LTV and the Company’s revenue. Further, it cautioned that the Company relies heavily on carriers owned by Humana and Anthem. GoHealth were to become dependent on fewer carrier relationships, it may become vulnerable to adverse changes in its relationship with carriers. In addition, it stated that carriers possessed the ability to reduce commission rates, which could affect the Company’s financial condition. Plaintiffs contend that at the time of the IPO, GoHealth suffered negative financial effects because it had maximized its growth with its partners Humana and Anthem. Therefore, before completion of the IPO, GoHealth decided to treat 2020 as an investment year. In effect, GoHealth substantially expanded its insurance carrier base for Medicare and increased its reliance on non- commissionable revenue through SNPs. Plaintiffs contend that these changes caused “significant disruptions to the Company’s critical LTV/CAC metric[.]” Shortly after GoHealth completed the IPO in July 2020, GoHealth officers made statements and released financial data that Plaintiffs assert signaled a shift from its Registration Statement. For example, co-founder, CEO, and Co-Chair of the board Clinton P. Jones (“Jones”) stated on an after-hours earnings call that the Company’s 2Q2020 poor financial results “came in largely as expected” and that the trends existed and were known prior to the IPO. The call confirmed that decreased customer persistency was consistent with GoHealth’s expectations, including low customer retention and lower effectuation rates. The addition of new carriers also caused higher disenrollment rates, called “churn.” Jones also stated that there was “an initial ramp-up period for new carriers with forecasted lower LTVs as agents learn about the new plans.” On March 16, 2021, GoHealth filed its Annual Report on Form 10-K for 2020 (the “2020 10-K”) with the SEC. (See Dkt. 74-2.) Defendants contend that the 2020 10-K shows that LTV per approved submission for Medicare Advantage increased from 2019 to 2020. Plaintiffs object to the Court’s consideration of the 2020 10-K in their motion to strike, but assert in the alternative that the document states that LTV/CAC for the Medicare Internal segment decreased in part due to “the implementation of new marketing strategies to drive the conversion of a greater number of qualified prospects into commissionable Approved Submissions[.]”</t>
-  </si>
-  <si>
-    <t>Section 15(a) of the Exchange Act</t>
-  </si>
-  <si>
-    <t>nysd_1_21-cv-11222</t>
-  </si>
-  <si>
-    <t>The following facts are based on the First Amended Complaint, which the Court accepts as true and construes in the light most favorable to DarkPulse.  DarkPulse, Inc. is a New York-based, Delaware-registered “microcap” company, that trades stocks in emerging companies on the “over the counter” market. The First Transaction On September 20, 2018, FirstFire loaned DarkPulse $225,000 in exchange for a convertible promissory note (the “2018 Note”) with a principal amount of $247,500 via a securities purchase agreement (the “2018 SPA”) (together with the 2018 Note, the “First Transaction”).  The 2018 Note provided an 8% interest rate per annum, a 10% original issue discount, and a nine-month maturity date.3 ¶ 27. The 2018 Note further gave FirstFire the right to convert any portion of the debt for company stock in DarkPulse, at a 30% discount to the market price, beginning 180 days after execution. It also included a New York forum-selection clause and a Nevada choice-of-law clause.4 Doc. 29- at 16 § 4.6. A microcap company is a publicly traded business with a market capitalization between approximately $50 million and $300 million. An “over-the-counter” market is a decentralized market in which market participants trade stocks or other instruments directly between parties, without a central exchange or broker. A convertible promissory note is a type of debt security that gives the lender, here FirstFire, the right to take repayment of a loan either in cash or in newly-issued company stock. Like an option or warrant, the lender is given the right to purchase company stock at a particular strike price; at conversion, the lender “converts” the note, i.e., it uses the accrued debt to “purchase” the stock instead of receiving cash. See Doc. 29-at 3. Specifically, the 2018 Note provides: “This Note shall be governed by and construed in accordance with the laws of the State of Nevada without regard to principles of conflicts of laws. Any action brought by either party against the other concerning the transactions contemplated by this Note or any other agreement, certificate, instrument or document contemplated hereby shall be brought only in the state courts or federal courts located in the state and county of New York. [DarkPulse] hereby irrevocably waives any objection to jurisdiction and venue of any action instituted hereunder and shall not assert any defense based on lack of jurisdiction or venue or based upon forum non conveniens.” Pursuant to the conversion option, over a period of approximately one and one-half years, between June 7, 2019 and February 18, 2021, FirstFire effected distinct conversions of debt into newly-issued DarkPulse common stock.n all, FirstFire exchanged $247,500 worth of debt—the entirety of the principal amount of the 2018 Note—for 879,400,000 shares of stock.  Presently, the estimated open market value of the stock acquired by FirstFire from converting debt under the 2018 Note totals $10,738,900.  In the days following each FirstFire conversion, the average daily trading volume in DarkPulse stock increased dramatically. Id. Thirty days prior to FirstFire’s first conversion, for example, DarkPulse had a trading volume (i.e., the total number of shares traded during a given period) of 4,646,131. Id. Ten days following the June 7, 2019 conversion, that figure nearly doubled to 8,235,159 trades. Id. And ten days following the June 24, 2019 conversion, the figure rose to 12,059,811 trades. Id. The Second Transaction On April 26, 2021, FirstFire loaned DarkPulse $750,000 in exchange for a convertible promissory note (the “2021 Note”) with a principal amount of $825,000 via a securities purchase agreement (the “2021 SPA”). The 2021 Note provided a 10% interest rate per annum and nine-month maturity date and incorporates by reference a registration rights agreement (the “RRA”) (altogether, the “Second Transaction,” and, with the First Transaction, Specifically, the conversions occurred on: June 7, 2019 (converting $5,340 of debt for 7,000,000 shares of common stock); June 18, 2019 ($3,331 for 7,000,000 shares); June 24, 2019 ($2,778 for 7,900,000 shares); July 8, 2019 ($1,560 for 6,000,000 shares); July 15, 2019 ($1,560 for 6,000,000 shares); July 24, 2019 ($2,708 for 11,600,000 shares); July 30, 2019 ($3,296 for 13,700,000 shares); August 5, 2019 ($3,008 for 16,100,000 shares); August 9, 2019 ($1,492 for 17,800,000 shares); August 15, 2019 (converting $1,426 for 20,900,000 shares); September 6, 2019 ($4,900 for 35,000,000 shares); September 10, 2019 ($4,900 for 35,000,000 shares); September 20, 2019 ($2,765 for 35,900,000 shares); September 1, 2020 ($7,000 for 85,000,000 shares); January 14, 2021 ($28,000 for 100,000,000 shares); January 25, 2021 ($42,000 for 150,000,000 shares); February 5, 2021 ($28,000 for 100,000,000 shares); and February 18, 2021 ($103,436 for 220,000,000 shares). The 2021 Note required DarkPulse to issue FirstFire 60,000,000 “Commitment Shares” upon execution of the agreement. Doc. 29-at 22 § C. On the date of execution of the Second Transaction, DarkPulse stock was trading at a price of $0.019 per share; the Commitment Shares therefore had a face value of approximately $1,140,000. The 2021 Note also included a New York choice-of-law and forum-selection clause, providing that its terms shall be governed by and construed in accordance with the laws of New York, and that any action brought by either party against the other concerning the Second Transaction must be brought only in the state or federal courts located in New York. Id. at 17 § 4.6. Similar to the 2018 Note, the 2021 Note includes a conversion right, whereby FirstFire could forego repayment of the 2021 Note in cash and instead convert “in whole or in part” any amounts owed to shares of DarkPulse common stock on any trading day, 180 days following execution of the transaction. Doc. 29-at 3 §§ 1.1 and 1.4(a). In contrast to the variable conversion price of the 2018 Note, the 2021 Note specified a fixed per-share conversion price of $0.015—the “Fixed Conversion Price”—or, alternatively, a “Default Fixed Conversion Price” of $0.005, applicable if an event of default occurs. The 2021 Note and RRA together defined “Events of Default.” Relevant here, two such Events of Default include: (1) DarkPulse failing to use commercially reasonable efforts to file a registration statement covering the resale of the shares of stock issued or issuable to FirstFire The RRA was filed by Defendants as Ex. E to Aaron H. Marks’ declaration in support of the motion to dismiss. Doc. 32-5. In deciding a motion to dismiss, courts may consider “any written instrument attached to the complaint, statements or documents incorporated into the complaint by reference, legally required public disclosure documents filed with the SEC, and documents possessed by or known to the plaintiff and upon which it relied in bringing the suit.” ATSI Commc’ns, Inc. v. Shaar Fund, Ltd., 493 F.3d 87, 98 (2d Cir. 2007). The RRA is expressly referenced in the FAC. Accordingly, the Court takes judicial notice of Doc. 32-as incorporated into the FAC by reference. pursuant to the 2021 SPA (the “Registrable Shares”) within ninety days after execution of the Second Transaction (i.e., by July 26, 2021),and (2) DarkPulse issuing common shares pursuant to an equity line of credit or otherwise in connection with a variable rate transaction entered after the date of the 2021 Note, see Doc. 29-at 15 § 3.16. Purported Events of Default DarkPulse’s public filings since April 26, 2021 do not include any statements registering the shares that were the subject of the 2021 Note. Additionally, as shown by DarkPulse’s Form 424B4 Prospectus (the “Prospectus”), on August 19, 2021, DarkPulse entered into a purchase agreement with non-party, GHS Investments, LLC (the “August GHS Agreement”). See Doc. 32-1.7 The August GHS Agreement granted DarkPulse the right to sell to GHS up to $45,000,000 worth of shares of DarkPulse common stock at variable rates from time to time at DarkPulse’s discretion. November 9, 2021, DarkPulse entered into a second purchase agreement with GHS (the “November GHS Agreement,” together with the August GHS Agreement, the “GHS Agreements”) granting DarkPulse the right to sell to GHS up to an additional $30,000,000 worth of shares of DarkPulse common stock at variable rates from time to time at DarkPulse’s discretion. Id. 15. DarkPulse issued shares of its common stock to GHS pursuant to the August GHS Agreement on at least five occasions between August 19, 2021 and October 14, 2021. Id. at 21–22. The Amendment DarkPulse filed its Form 424B4 Prospectus with the SEC on May 3, 2022.  The Court takes judicial notice of this filing. On November 4, 2021, Defendant Eli Fireman, the managing member of FirstFire, met with DarkPulse’s Chief Executive Officer, Dennis O’Leary, while on a business trip in Las Vegas. Fireman presented O’Leary with a one-page “Amendment No. to the Convertible Promissory Note Issued on April 26, 2021” (the “Amendment”), claiming that it would enable DarkPulse to complete future acquisitions without having to notify O’Leary. Id.; see Doc. 32-6.8 Fireman did not mention to O’Leary that the Amendment replaced both the New York choice-of- law and forum-selection provisions of the 2021 Note with Delaware provisions. The Amendment consists of the following four provisions: 1. Remove from the Securities Purchase Agreement Section 4. Subsection d . . . . 2. Governing Law; Venue. The Transaction Documents shall be governed by and construed in accordance with the laws of the State of Delaware without regard to principles of conflicts of laws. Any action brought by either party against the other concerning the transactions contemplated by this Agreement, the Note, the Warrant, or any other agreement, certificate, instrument, or document contemplated hereby shall be brought only in the state courts of Delaware or in the federal courts located in the state of Delaware. The parties to this Agreement hereby irrevocably waive any objection to jurisdiction and venue of any action instituted hereunder and shall not assert any defense based on lack of jurisdiction or venue or based upon forum non conveniens. EACH PARTY HEREBY IRREVOCABLY WAIVES ANY RIGHT IT MAY HAVE, AND AGREES NOT TO REQUEST, A JURY TRIAL FOR THE ADJUDICATION OF ANY DISPUTE HEREUNDER OR IN CONNECTION WITH OR ARISING OUT OF THIS AGREEMENT OR ANY TRANSACTIONS CONTEMPLATED HEREBY . . . .  The Parties have mutually agreed to the provisions set forth herein and are doing so without the exchange or any additional consideration . . . . This Amendment shall be deemed part of, but shall take precedence over and supersede any provisions to the contrary contained in the Note. Except as specifically modified hereby, all of the provisions of the Note, which are not in conflict with the terms of this Amendment, shall remain in full force and effect. O’Leary and Fireman signed the Amendment, which is dated October 14, 2021, and purported to be effective as of April 26, 2021.9 Id. at 2–4. Conversion Pursuant to the Second Transaction On November 15, 2021, FirstFire notified DarkPulse of its intent to convert the full amount of debt under the 2021 Note (i.e., the $825,000 principal, plus $61,875 in outstanding interest) into shares of common stock, using the $0.005 Default Fixed Conversion Price.  Two days later, with DarkPulse stock trading at $0.1334 per share, a transfer agent delivered to FirstFire 177,375,000 shares of stock, having an estimated market value of $23,661,825.</t>
-  </si>
-  <si>
-    <t>Section 15(a) of the Act</t>
-  </si>
-  <si>
-    <t>RICO 18 U.S.C. Section 1962</t>
-  </si>
-  <si>
-    <t>Constructive Trust</t>
-  </si>
-  <si>
     <t>nysd_20_cv_04494</t>
   </si>
   <si>
@@ -416,6 +299,46 @@
   </si>
   <si>
     <t>American Airlines is one of the United States’ three largest providers of air transportation for passengers and cargo. American traditionally sold airfare and ancillary services to corporate customers through third party distributors who used global distributions systems (“GDSs”), which are centralized platforms that act as middlemen between travel agencies and airlines. These GDSs relied on Electronic Data Interchange for Administration, Commerce, and Transport (“EDIFACT”), a universal language for data sharing, to exchange information regarding airfare and ancillary services. Beginning in December 2022, American adopted several changes to its sales and distribution strategy designed to modernize its offerings and reduce costs. American’s new distribution strategy aimed to push corporate customers away from booking through EDIFACT channels to booking directly through American’s website, mobile app, or a direct connection with the airline. All of this involved using New Distribution Capability (“NDC”) technology. Plaintiffs allege that immediately after introducing NDC in July 2023, American’s bookings from larger agencies and corporate clients began to decline. According to the complaint, from the beginning of the Class Period, American and the individual Defendants Robert D. Isom, Jr. (then-Chief Executive Officer, President, and a member of American’s Board of Directors), Devon E. May (then-Executive Vice President and Chief Financial Officer), and Vasu S. Raja (then-Executive Vice President and Chief Commercial Officer) misled investors by concealing the negative effects resulting from the shift to NDC. The complaint relies on information from two confidential witnesses (“CW1” and “CW2”) who were employed by American for a portion of the Class Period. CW1 was employed at American from 2019 to January 2024 as a Travel Agency Account Manager.8 During this time. The parties identify the “Class Period” in their pleadings as being from July 20, 2023, through May 28, 2024. CW1 managed accounts for two “very large” corporate travel agencies. CW2 was an American employee for over three decades until leaving the Company on January 31, 2024.10 During the Class Period, CW2 worked as a Retail Business Manager within American’s Global Sales division managing small, medium, and large-sized travel agency accounts located in the Midwestern and Southern Region of the United States. According to the CWs, starting in 2023 and continuing into 2024, American’s internal data showed that agencies, travel management companies, and corporations were not adopting NDC as quickly or as broadly as American anticipated which caused American’s market share of corporate travel to decline.12 Plaintiffs allege that Defendants attempted to conceal negative effects of American’s changes to its distribution and sales strategy by issuing a series of material misstatements and omitting material facts American’s public statements. Throughout the Class Period Defendants maintained that that they were “encouraged” by “how quickly” clients’ NDC “transition has happened[,]” purportedly because “incentives” targeted to travel agencies and travel managers were “helping them shift” to NDC; that business travel “demand is strong[,]” and “corporate travel is coming back[,]” enabling American to “hang on to [its business travel] share.” In late May 2024, however, American announced Raja’s termination and adjusted its 2024 financial guidance downward. Shortly after, Bloomberg published an article (the “Bloomberg article”) linking Raja’s dismissal to a critical review by the consulting firm Bain &amp; Co. (“Bain”). Bain concluded that American’s strategy had alienated corporate clients “over the past few Id. I quarters.” After these disclosures, American’s stock price suffered the largest single-day drop since COVID-19’s negative effects on travel. In July 2024, American cut guidance again, once more blaming the NDC strategy. In July and August 2024, several of American’s investors filed class action complaints alleging that American violated Sections 10(b) and 20(a) of the Securities Exchange Act of 1934. The actions were consolidated, and Plaintiffs filed an amended complaint on January 21, 2025, and a further amended complaint on March 19, 2025. Plaintiffs claim that during the Class Period, Defendants hid that American’s sales and distribution strategy was harming its business evidenced by fewer corporate bookings and lost market share.</t>
+  </si>
+  <si>
+    <t>nysd_22-cv-07111</t>
+  </si>
+  <si>
+    <t xml:space="preserve">To appreciate the potential significance of the alleged events, one must understand several aspects of a particular type of corporate entity: the special-purpose-acquisition corporation (the “SPAC”). Ordinarily, a privately held corporation becomes a publicly traded corporation through an initial public offering (an “IPO”), a process entailing various legal requirements and associated expenses. See 1 Thomas Lee Hazen, Law Sec. Reg. (“Hazen”) § 3:2 (Westlaw database updated Nov. 2023) (overview of the traditional registration process). SPACs offer another route for a private company to go public. “The creation of a SPAC begins with a sponsor forming a corporation and working with an underwriter to take the SPAC public in an IPO.” Michael Klausner, Michael Ohlrogge &amp; Emily Ruan, A Sober Look at SPACs, 39 Yale J. on Regul. 228, 236 (2022) (“Klausner et al.”). “Nominally, the SPAC is managed by its own officers and directors, who are selected by the sponsor. Those officers and directors typically overlap with the individuals who own and created the sponsor, and the compensation of the SPAC’s officers and directors typically aligns their interests with those of the sponsor.”. Following its IPO, a SPAC has “no business activities” except seeking “to acquire an existing [privately] operating company,” thus allowing the private company to become a public company without conducting an IPO. . “The capital from the SPAC’s initial public offering . . . is held in trust for a specific period of time to fund the acquisition.”. “SPACs usually have an 18-to-24-month period to find an acquisition target and completion of the SPAC business combination.” The resulting business combination “is often referred to as a de-SPAC transaction.” “If a merger or acquisition is successfully made within the allocated time frame, founders and managers of the SPAC can profit through their ownership of the SPAC’s  securities (typically about 20% of the SPAC’s stock, in addition to warrants to purchase additional shares).” But “if an acquisition is not completed within that time frame, then the SPAC is dissolved and the money held in trust is returned to investors with no compensation paid to the founders and managers of the SPAC, whose SPAC securities expire worthless.” Id.; accord Klausner et al., supra, at 237 (“If the SPAC does not merge within the period provided for in the charter (or have its shareholders vote to extend its life by a few months), the SPAC must liquidate and distribute the funds in the trust to its public shareholders. In the event of a liquidation, the sponsor loses its investment.”). Plaintiffs contend that, as a result, “the founders and management team of a SPAC are highly incentivized to complete an acquisition within their deadline, even if the benefits of that transaction for the public shareholders of the SPAC are dubious.”  “Typically, common stockholders of a SPAC are granted voting rights to approve or reject the business combination proposed by the management team.” “Thus, when the management team identifies a target, a proxy statement must be distributed to all SPAC stockholders, which includes the target company’s financial statements and the terms of the proposed business combination.” “Public stockholders in SPACs rely on management of the SPAC and the target company to honestly provide accurate information about any contemplated transactions.” Trident was a SPAC incorporated in Delaware on March 17, 2016. Trident filed its IPO prospectus (dated May 29, 2018) with the Securities and Exchange Commission (the “SEC”) on May 30, 2018. In the IPO Prospectus, Trident stated that it “intend[ed] to focus [its] efforts on seeking a business combination with an oil and gas or other natural resources companies in Eastern Europe or interested in expanding into Eastern Europe.” IPO Prospectus also reported that seven people served as officers and/or directors of Trident, including four of the Individual Defendants: Ponomarev (chief executive officer (“CEO”) and director), Komissarov (president, chief financial officer (“CFO”), and director), Gallagher (director), and Butkevych (director). Id. ¶ 50; IPO Prospectus at 69. The IPO Prospectus “repeatedly touted” Ponomarev and other officers as “experienced in the energy industries and working in Eastern Europe.” On June 1, 2018, Trident completed the IPO of 17,500,000 units. Each unit “consist[ed] of one share of common stock and one warrant entitling its holder to purchase one share of common stock at a price of $11.50 per share.” Id. Trident also granted the IPO’s underwriters an option to purchase up to 2,625,000 additional units to cover possible over-allotments; the underwriters exercised that option in full on June 4, 2018. Id. In total, Trident issued a total of 20,125,000 units at a price of $10.00 per unit, resulting in total gross proceeds of $201,250,000 from the IPO. Trident’s units began trading on the NASDAQ on May 30, 2018, and its common stock and warrants began separately trading on the NASDAQ on June 13, 2018. On June 5, 2018, Trident deposited the proceeds from the IPO – along with the proceeds from a private placement of an additional 1,150,000 units at a price of $10.00 per unit – in a trust account for the purpose of funding a business combination. Under its amended and restated certificate of incorporation, Trident initially had until December 1, 2019, to complete a de-SPAC transaction. “If [Trident] was unable to consummate a business combination by then, [Trident] would be required to (i) cease all  operations except for the purpose of winding up, (ii) as promptly as reasonably possible but no more than ten business days thereafter, redeem 100% of the outstanding public shares, and (iii) liquidate and dissolve the company.”Trident could seek shareholder approval of an extension of the business-combination deadline. But “if such an extension was approved, [Trident] was required to provide shareholders with the opportunity to redeem all or a portion of their public shares.”That scenario risked shareholders “decid[ing] to redeem [Trident] shares in amounts that would significantly deplete [Trident’s] trust account and jeopardize its ability to complete a transaction even with an extended deadline.” Id. The failure to complete an IPO would render “worthless” the millions of shares and warrants acquired by Trident’s directors and officers. Trident “sought and obtained three extensions of the deadline, and each time, a portion of shareholders sought to redeem their shares.”. As a result of those redemptions, Trident’s officers and directors “saw their financial interest in the company continue to dwindle,” and “the amount of funds [that Trident] had access to for an acquisition greatly declined, further shrinking the available pool of potential companies for which a potential acquisition by [Trident] would be enticing.” . The last of these extensions pushed the business-combination deadline until December 1, 2020. . Following the third extension and corresponding redemption of shares, Trident had just $62,286,780 left of the original amount of $201,250,000.  On November 19, 2020, Trident announced that it had signed a letter of intent to combine with Lottery, a private company founded in 2015 and based in Austin, Texas. Lottery offered users an online platform to play lottery games, including state- sanctioned games such as Powerball and Mega Millions. Lottery also provided lottery-related data to digital publishers. A press release dated November 19, 2020, filed with the SEC on a Form 8-K,2 described Lottery as “ha[ving] been a pioneer in the lottery industry, working closely with state regulators to advance the industry into the digital age.” (the “11/19/20 Form 8-K”). It also stated that Lottery “works closely with state regulators to advance the lottery industry, providing increased revenues and better regulatory capabilities, while capturing untapped market share, including millennial players.” Lottery “made the same or substantially similar statements regarding Lottery’s work with state regulators throughout the Class Period.” on February 8, February 22, March 22, April 5, April 12, April 21, April 27, and June 9, 2021/ Lottery filed the final proxy statement and prospectus for the de-SPAC transaction with the SEC on October 18, 2021. In the Proxy – and, indeed, “[t]hroughout the Class Period” – Lottery “represented that it recognized revenue in accordance with generally accepted accounting principles (‘GAAP’) and that its financial and other public statements adequately represented its financial condition.” The Proxy projected that Lottery would generate more than $70 million in revenue, more than $3 million in earnings before interest, taxes, depreciation, and amortization (“EBITDA”), a 32 percent gross-profit margin, and a 5 percent EBITDA margin for the 2021 fiscal year. Elsewhere in the document, however, the Proxy warned:  As a private company, we have not been required to document and test our internal controls over financial reporting nor has our management been required to certify the effectiveness of our internal controls and our auditors have not been required to opine on the effectiveness of our internal control over financial reporting. Failure to maintain adequate financial, information technology and management processes and controls has resulted in and could result in material weaknesses which could lead to errors in our financial reporting, which could adversely affect our business.  The Proxy also noted that “[i]n the course of preparing the financial statements that are included in this proxy statement/prospectus, [Lottery] ha[d] identified a material weakness in [its] internal control over financial reporting as of December 31, 2020.” This material weakness “relate[d] to a deficiency in the design and operation of the financial statement close and reporting controls, including maintaining sufficient written policies and procedures and the need to use appropriate technical expertise when accounting for complex or non-routine transactions.” The Proxy attributed the material weakness to the fact that, up to that point, Lottery was “a private company with limited resources” that “did not have the necessary business processes and related internal controls, or the appropriate resources or level of experience and technical expertise, that would be required to oversee financial reporting processes or to address the accounting and financial reporting requirements.” The Proxy assured investors that Lottery’s “management [wa]s in the process of developing a remediation plan.” But it warned that “[t]he material weakness remains unremediated as of June 30, 2021,” and that it “could result in misstatements to [Lottery’s] financial statements that would be material and would not be prevented or detected on a timely basis.” The Proxy further stated that “[d]uring the course of documenting and testing [its] internal control procedures . . . , [Lottery] may identify other weaknesses and deficiencies in [its] internal control over financial reporting.” The Proxy noted that if Lottery “fail[s] to maintain the adequacy of [its] internal control over financial reporting,” it “may” suffer various negative consequences.  The Proxy also addressed the possibility that a jurisdiction could “enact, amend, or reinterpret laws and regulations governing [Lottery’s] operations” in ways that would impair its “existing operations or planned growth,” with potential ramifications for its “operations, cash flow, or financial condition.”). The Proxy added that Lottery’s “business model and the conduct of our operations may have to vary in each U.S. jurisdiction where [it] do[es] business to address the unique features of applicable law to ensure [it] remain[s] in compliance with that jurisdiction’s laws. [Lottery’s] failure to adequately do so may have an adverse impact on [its] business, financial condition, and results of operations.” Id. (emphasis omitted). On October 21, 2021, Lottery issued a press release announcing its preliminary revenue results for the third quarter of 2021. (the “10/21/21 Press Release”). Per the 10/21/21 Press Release, Lottery’s third-quarter revenue was “expected to be between $22.0 million and $24.0 million.”  “The strong growth [compared to the previous quarter] was driven by increased sales in the Company’s [business-to-business] segment.”. The 10/21/21 Press Release also stated that, “[o]n a preliminary basis, revenue through the first nine months of 2021 is expected to be between $36.8 million and $38.8 million on a reported basis and $38.7 million and $40.7 million on a pro forma basis,” reflecting an increase of more than 270 percent compared to “the full twelve months of 2020.”The 10/21/21 Press Release included a “notice regarding forward-looking statements” providing that “this release contains statements that constitute ‘forward-looking statements,’” and that “all statements, other than statements of present or historical fact included in this press release, regarding preliminary third quarter revenue results [and other topics] . . . are forward-looking statements.” 10/21/21 Press Release at 4 (capitalization omitted). The notice “caution[ed] . . . that the forward-looking statements contained in this press release are subject to [various] factors,” including Lottery’s “ability to maintain effective internal controls over financial reporting, including the remediation of identified material weaknesses in internal control over financial reporting relating to segregation of duties with respect to, and access controls to, its financial record keeping system, and [Lottery’s] accounting staffing levels.” Id. at 5. “Should one or more of the risks or uncertainties described in this press release materialize,” the notice added, “actual results and plans could differ materially from those expressed in any forward-looking statements.” Id. at 6. To ensure consummation of the merger, Trident’s board and shareholders approved measures extending the time to complete the deal until as late as December 1, 2021. On October 29, 2021, Trident and Lottery announced that they had completed the merger, with the combined entity retaining Lottery’s name. Lottery’s common shares and warrants began trading on the NASDAQ on November 1, 2021. DiMatteo was a co-founder of Lottery who served as an officer and director prior to the merger; after the merger, he was Lottery’s CEO and chairperson. Clemenson, another co-founder of Lottery, was the company’s chief commercial officer at the time of the merger; he retained that title until March 2022, at which time he became Lottery’s chief revenue officer. Dickinson was Lottery’s president and chief operating officer (“COO”) prior to the merger; after the merger, he served as Lottery’s president, treasurer, and acting CFO. Following the merger, Lever served as Lottery’s COO and chief legal officer. Komissarov was CEO and a director of Trident prior to the merger. He also served as Trident’s CFO until November 20, 2020.  On November 15, 2021, Lottery filed financial statements as an exhibit to a Form 8-K/A submission. In that filing, Lottery reported that for the three months ending on September 30, 2021, revenue increased from $1.6 million to $32.25 million – that is, by $30.65 million, or over 1,900 percent – compared to the same three-month period in 2020. Lottery stated that “[t]he increase in revenue was driven by a $30 million sale of affiliate marketing credits during the three months ended September 30, 2021.” In other words, “nearly all of the revenue for the quarter was derived from [the sale of] marketing credits to an affiliate.” Lottery “termed these credits ‘LotteryLink Credits. “LotteryLink Credits could be purchased by [Lottery’s] third-party marketers and redeemed as advertising credits to support flexible promotional packages (such as prepaid advertising, prepaid lottery games, among other things) via [Lottery’s] LotteryLink affiliate marketing program.”  That same day, on November 15, 2021, Lottery filed its quarterly report for the third fiscal quarter of 2021 on a Form 10-Q. The Q3 2021 Report “referenced the fact that [Lottery] had identified a material weakness relating to a technical accounting issue identified by the SEC in SPAC-related guidance.” “Specifically, Lottery determined that its disclosure controls and procedures were not effective as of September 30, 2021, and thus had restated its financial statements . . . , in order to comply with a new SEC Staff Statement regarding the classification of warrants.” I“Other than” that, the Q3 2021 Report continued, “there were no changes in [Lottery’s] internal control over financial reporting . . . during the most recent fiscal quarter that have materially affected, or are reasonably likely to materially affect, [Lottery’s] internal control over financial reporting.” Lottery also announced its “plan to enhance [its] processes to identify and appropriately apply applicable accounting requirements to better evaluate and understand the nuances of the complex accounting standards that apply to [its] financial statements.” Several exhibits were “filed as part of, or incorporated by reference into,” the Q3 2021 Report. Q3 2021 Report at 25. Among the exhibits were certifications by DiMatteo and Dickinson, as required by the Sarbanes-Oxley Act of 2002 (“SOX”) and its implementing regulations. DiMatteo and Dickinson both certified that they had reviewed the Q3 2021 Report and that, “[b]ased on [their] knowledge, this report does not contain any untrue statement of a material fact or omit to state a material fact necessary to make the statements made, in light of the circumstances under which such statements were made, not misleading with respect to the period covered by this report.” They also certified that, “[b]ased on [their] knowledge, the financial statements, and other financial information included in this report, fairly present in all material respects the financial condition, results of operations and cash flows of the registrant as of, and for, the periods presented in this report.” DiMatteo and Dickinson further certified that they “ha[d] disclosed, based on [their] most recent evaluation of internal control over financial reporting, to [Lottery’s] auditors and the audit committee of [Lottery’s] board of directors (or persons performing the equivalent functions)”: (1) “[a]ll significant deficiencies and material weaknesses in the design or operation of internal control over financial reporting which are reasonably likely to adversely affect the registrant’s ability to record, process, summarize and report financial information”; and (2) “[a]ny fraud, whether or not material, that involves management or other employees who have a significant role in the registrant’s internal control over financial reporting.” Id. DiMatteo and Dickinson made “substantially similar certifications” in “[e]ach of Lottery’s financial statements issued during the Class Period after the [de-SPAC transaction].” On March 31, 2022, Lottery “issued a press release, also filed as an attachment to a Form 8-K filed with the SEC on that date.” In the 3/31/22 Form 8-K, Lottery touted “strong” financial results for the fourth quarter of 2021 as well as for the full year of 2021. Specifically, Lottery reported $21.5 million in revenue for the fourth quarter of 2021 (an increase of $18.2 million, or about 550 percent, compared to the fourth quarter of 2020) and $62.6 million in cash for the fourth quarter of 2021 (an increase of $58.8 million, or over 1,500 percent, compared to the fourth quarter of 2020). Lottery also reported $68.5 million in revenue for 2021 (an increase of $61 million, or over 800 percent, compared to 2020). On April 1, 2022, Lottery filed its annual report for 2021 on a Form 10-K.  (the “2021 Annual Report”). The 2021 Annual Report “reiterated the financial results released the prior day” in the 3/31/22 Form 8-K. The 2021 Annual Report added that the $68.5 million in revenue was “driven by the sale of $47.1 million in LotteryLink Credits for prepaid advertising, prepaid lottery games, marketing materials and development services in the third and fourth quarters of 2021.” . Lottery also reported that its accounts receivable as of December 31, 2021, was $21,696,653. “Since the accounts receivable figure was lower than revenue for the same period (which itself was ‘driven’ by the sale of marketing credits), [Lottery] suggested that it had collected more than half the revenue from marketing credits from the customer.” The 2021 Annual Report “also stated that it had identified a material weakness in internal control over financial reporting as of year-end 2021 and 2020, but it described this material weakness as one largely related to personnel and staffing – specifically, it related to ‘the design and operation of the procedures relating to the closing of financial statements.’” “Defendants reassured investors that [Lottery] had ‘commenced measures to remediate’ [this] material weakness” and that, “other than the deficiencies identified, ‘there was no change in [Lottery’s] internal control over financial reporting.’” In the 2021 Annual Report, Lottery further stated that it “rel[ies] on technology services to closely monitor and track amendments, additions, and impositions of regulations in all jurisdictions regarding the authorization of lottery and work to maintain effective relationships with applicable legislative and regulatory authorities in each jurisdiction in which we operate or anticipate operating in.” Lottery added that it “use[s] this information . . . to create strong working relationships with the regulatory authorities in the jurisdictions in which [it] do[es] business, to ensure transparent regulatory compliance and promote each jurisdiction’s objective for economic benefit through the sale of lottery games.” Lottery also stated: “While we believe that we are in compliance with all material domestic and international laws and regulatory requirements applicable to our business, we cannot ensure that our activities or the activities of those third parties with whom we do business will not become the subject of regulatory or law enforcement proceedings.” On May 16, 2022, Lottery “issued a press release, filed with the SEC on Form 8-K. (the “5/16/22 Form 8-K”). Lottery reported $21.2 million in revenue during the first quarter of 2022 (an increase of $15.7 million, or about 285 percent, compared to the first quarter of 2021) and $50.8 million in cash during the first quarter of 2022 (an increase of $32.5 million, or about 175 percent, compared to the first quarter of 2021).Also on May 16, 2022, Lottery filed its quarterly report for the first quarter of 2022 on a Form 10-Q.The Q1 2022 Report “reiterated the financial results disclosed in its press release.” Lottery stated that “[t]he increase in revenue was driven by the sale of $18 million in LotteryLink Credits for prepaid promotional rewards, marketing materials and development services.” An anonymous “Customer A” accounted for 87.7 percent of Lottery’s revenue and 99.6 percent of Lottery’s accounts receivable for the quarter. The Q1 2022 Report further stated that Lottery had “evaluated the effectiveness of [its] disclosure controls and procedures.” Based on this evaluation, Lottery’s CEO and CFO – that is, DiMatteo and Dickinson – “ha[d] concluded that, as of the end of the period covered by this Quarterly Report, [Lottery’s] disclosure controls and procedures were not effective due to the material weakness in [its] internal control over financial reporting with respect to [its] financial statement close and reporting process.” Id. (emphasis omitted). But Lottery reassured investors that “[n]otwithstanding such material weakness in [its] internal control over financial reporting, [Lottery’s] management concluded that [its] condensed consolidated financial statements included in this Quarterly Report fairly present, in all material respects, [its] financial position, results of operations and cash flows as of the dates and for the periods presented in conformity with GAAP.” In a Form 8-K filed with the SEC on July 6, 2022 (but signed the day before), “Lottery disclosed that an internal investigation had revealed ‘issues pertaining to the Company’s internal accounting controls’ and ‘instances of non-compliance with state and federal laws concerning the state in which tickets are procured as well as order fulfillment.’” Lottery also revealed that, on June 30, 2022, its board had fired Dickinson from his positions as Lottery’s CFO, president, and treasurer, effective July 1, 2022.  On July 15, 2022, Lottery announced in a Form 8-K that Clemenson, its chief revenue officer, had resigned on July 11, 2022, effective immediately. Lottery also “reported that, after a review of its cash balances, its revenue recognition policies and procedures, and other internal accounting controls,” it “preliminarily conclude[d] that it has overstated its available unrestricted cash balance by approximately $30 million and that, relatedly, in the prior fiscal year, it improperly recognized revenue in the same amount.” On July 22, 2022, Lottery filed a Form 8-K disclosing that its independent auditor had “determined ‘that the audited financial statements for the year ended December 31, 2021, and the unaudited financial statements for the quarter ended March 31, 2022, should no longer be relied upon,’ and ‘that a Company subsidiary entered into a line of credit in January 2022 that was not disclosed in the footnotes to the December 31, 2021 financial statements and was not recorded in the March 31, 2022 financial statements.’” Lottery also disclosed that DiMatteo, Lottery’s CEO, was resigning, effective immediately. Subsequently, on October 6, 2022, Lottery disclosed that its independent auditor had resigned, effective immediately. 
+</t>
+  </si>
+  <si>
+    <t>ctd-3-23-cv-01035</t>
+  </si>
+  <si>
+    <t>ilnd-1-21-cv-04349</t>
+  </si>
+  <si>
+    <t>mad-1-21-cv-10933</t>
+  </si>
+  <si>
+    <t>mied-4-23-cv-13132</t>
+  </si>
+  <si>
+    <t>txsd-4-21-cv-02473</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Section 10(b) of the Exchange Act and Rule 10b-5(a)/(c) </t>
+  </si>
+  <si>
+    <t>RTX is an American, multinational aerospace and defense corporation that was founded through a merger between United Technologies Corporation (“UTC”) and Raytheon Corporation (“RTN”). Pratt &amp; Whitney (“Pratt”) is an industry-leading airplane industry manufacturer and former subsidiary of UTC, and is now a subsidiary of RTX. Am. Compl.. Pratt’s The following facts are drawn from the Amended Complaint and statements or documents incorporated by reference. See Corp., PLC, 146 ). commercial engine sales are allegedly a critical driver of RTX’s success, and allegedly accounted for 30 percent of RTX’s net sales in 2022. Pratt is allegedly an original equipment manufacturer (“OEM”) and allegedly generates the majority of its profits through commercial aircraft engine sales and aftermarket maintenance, repair, and overhaul (“Aftermarket MRO”) sales and services on its in-service engines. Pratt’s most significant product is allegedly the Geared Turbofan engine family, which allegedly skyrocketed in popularity among commercial airlines after the product was launched in 2016.. RTX initially sold the GTF engines at an alleged $1 million loss because of the engine’s expensive design and construction.. The alleged plan was to breakeven and recoup the losses through Aftermarket MRO of the initial sales. RTX could allegedly only charge for Aftermarket MRO sales and services, however, after the warranties expired on engines, which is typically up to five years from the time the aircraft enters flight service. This business model allegedly gave Defendants a strong incentive to increase GTF production and get the engines into service as soon as possible, but those engines would need to be in service long enough for the warranties to expire in order for RTX to profit from Aftermarket MRO services.. “However, following the GTF Engine’s commercial release in 2016, Pratt &amp; Whitney struggled to increase capacity and thus began cutting corners in quality control for its GTF production.” Pratt allegedly manufactured its engine parts using powdered metal. This process allegedly involves creating a powdered metal alloy from raw materials, bonding the powder through compression and heat into a solid metal “forging,” and machining the metal forging to a part specification.. Contamination is allegedly a significant risk when manufacturing parts from powered metal because contaminants allegedly cause the powdered metal to bond improperly. When such contaminated powdered metal is subject to extreme temperature and movement “that occur during typical flight conditions,” the contaminated metal can allegedly crack. The crack can allegedly lead to “catastrophic fractures, engine fires and [allegedly] ultimately the loss of the airplane.” In 2015, Pratt allegedly built a new multi-story structure at its powdered metal manufacturing facility in Clayville, New York, to allegedly increase its powdered metal manufacturing capacity as part of an alleged effort to scale-up production on the GTF engine.. During the alleged scale-up process, there was some introduction of contaminants to Pratt’s powdered metal. The company was allegedly aware of the powdered metal defect by 2020. According to a former employee (“FE-1”), there was an alleged conference call in approximately August 2019 to discuss alleged powdered metal problems.. Sarah Toomey, Chief Engineer, allegedly convened the call, a call allegedly led by “the Director of the GTF 1100 engine program, for the A321neo/A320neo aircraft.” According to FE-1, there was allegedly concern about the facility in Clayville, New York. Another former employee (“FE-5”) alleged that, in approximately 2020, “foreign objects were occasionally identified in powder as it was forming,”, and FE-9 alleged that “colleagues from Pratt &amp; Whitney’s metallurgical testing labs told him” that there had been issues with powdered metal since approximately 2016 “and that the Company was planning a recall because of this problem.” On March 18, 2020, Vietnam Airlines Flight VN-920 allegedly experienced an HPT disk fracture, allegedly leading its V2500 series Pratt &amp; Whitney engine to rip apart, which allegedly forced the crew to abort a high-speed takeoff.. The V2500 engine allegedly was manufactured using the same powdered metal process that GTF engine and at the same processing facility. Pratt’s alleged analysis of the aircraft allegedly showed that the fractured disk was “attributable to ‘a material anomaly,’ or contamination resulting from ‘deficiencies in the manufacturing process.’” By this point in 2020, Defendants allegedly “knew that the powdered metal defect was a systemic, serious problem afflicting all Pratt &amp; Whitney engines equipped with parts constructed from the faulty, contaminated material,” and Defendants allegedly made this discovery in 2020, and were allegedly aware that “revealing the pervasive and costly powdered metal defect to investors would have a cataclysmic impact on RTX’s stock price.”. Immediately after the alleged March 2020 incident, the Federal Aviation Administration (“FAA”) issued Emergency Airworthiness Directives and Airworthiness Directives allegedly requiring Pratt to remove all affected HPT disks in the V2500 engine family from service.. These directives also allegedly required Pratt to investigate the “root cause” of the incident. Based on that root cause analysis, Pratt later determined that the HPT disks “were defective due to contamination of the powdered metal from which they were made.” Defendants later allegedly admitted that this defective powdered metal was used to manufacture HPT disks across Pratt engines from approximately the end of 2015 through the middle of 2021.. Because HPT disks for both the V2500 and the GTF engine families were allegedly manufactured using the same process and using the same allegedly contaminated material, Defendants were allegedly aware that the same powdered metal defect present in the V2500 was also present in the GTF engine family. Remedying a powdered metal defect would allegedly require RTX to take affected engines out of service for months prior to their warranty period, which would allegedly cost RTX “billions of dollars in emergency inspections and repairs, as well as compensation to airlines for prolonged grounding of planes” that suffered from the defect.. Defendants are alleged to have committed numerous representations related to the scope of the powdered metal defect starting on February 8, 2021, when Defendants allegedly falsely assured investors that any early mechanical problems with the GTF engine had been addressed.. Defendants allegedly were aware as early as March 2020 of the extent to which the powdered metal defect affected the in-service GTF engines, id. –4, and that the defect could cause critical engine parts to crack and fail during flight.. Pratt allegedly provided the FAA with an “‘expanded’ non-public root cause analysis” of the Vietnam Airlines incident on July 29, 2021, that allegedly identified the same powdered metal defect within the GTF engine fleet that had allegedly caused the engine failure in Vietnam.. The FAA allegedly released an Airworthiness Directive based on that “expanded” analysis on September 10, 2021, that related to three GTF engines. On December 24, 2022, a Viva Aerobus flight equipped with a GTF engine allegedly caught fire and aborted takeoff in Mexico.. Defendants continued to make statements about the GTF’s airworthiness and profitability. –40. On July 25, 2023, Defendants issued an 8-K Press Release disclosing a “rare condition” in its powdered metal that would require Pratt to “to remove some [GTF] engines from service for inspection earlier than expected.”. During the subsequent earnings call, Defendants disclosed that RTX would immediately recall approximately 200 GTF engines for “emergency ‘enhanced inspection,’ with approximately 1,000 more [allegedly] needing to be removed and inspected within the next 9 to 12 months, [allegedly] causing a $500 million hit to RTX’s free Specific alleged misstatements will be described in greater detail infra. cashflow.” Defendants also allegedly revealed during the call that there were contaminates introduced into “powdered metal produced from approximately Q 2015 into Q 2021.” Also, on July 25, 2023, RTX’s share price fell $9.91 per share, or 10.2%, to allegedly close at $87.10.. On September 11, 2023, RTX issued a Press Release and Form 8-K providing an update on the powdered metal defect.. Defendants allegedly admitted that the defect impacted the entire 3,00 engine fleet, and would require “600-700 engines to be removed for inspection in the near term.”. Defendants allegedly informed investors that these inspections would require engines to be out of service for “as much as 250 to 300 days each.... The impact to RTX’s bottom line was now [allegedly] projected to be... $3 to $3.5 billion to repair the engines and compensate the Company’s airline customers for the lost use of their planes.” On that same day, RTX’s share price fell an additional $6.58 per share, or 7.9 percent, to close at $76.90, more than 27 percent below the stock’s Class Period high.</t>
+  </si>
+  <si>
+    <t>To repeat, ATI provides physical-therapy services across the U.S. in 24 states. The company is headquartered in Bolingbrook, Illinois, and was formed in 1996. FVAC was incorporated in Delaware as a SPAC on June 10, 2020.. A SPAC is a shell company formed for the purpose of raising money through a public offering to acquire or merge with an existing company.. A key feature of a SPAC is that if it fails to acquire a company, then it must return its funds to investors.. Relatedly, employees of a SPAC will generally lose their employ- ment at the end of the life of the entity. But FVAC did specifically allow its personnel to take employment with or become consultants for the new company cre- ated following a successful merger or acquisition.. FVAC completed its initial public offering on August 14, 2020, raising $345 million. Meanwhile, ATI—in its pre-merger form—was undergoing important manage- ment changes. Around February 6, 2019, Diab became the new CEO of ATI, replacing McKnight, who at some point afterward became the CEO of FVAC. Am. Compl.. A couple of months later, in April, Cedric Coco was named ATI’s new Chief Human Resources Officer (CHRO).. Two years after those appointments, ATI and FVAC announced, on February 22, 2021, a proposed merger to take ATI public as a combined entity.. Right before, on February 21, Diab, Coco, and then-CFO Jordan entered into new employment agreements with ATI.. These guaran- teed that, in the event of the termination of their employment, each executive would receive a multiple of their annual salary—1.5 times for Diab and 1.25 times for Coco and Jordan—as well as a pro-rated annual bonus, and the immediate vesting of any unvested equity. B. Merger Naturally, the announcement of the proposed merger between FVAC and ATI led to public filings and disclosures, starting with the February 22, 2021 Securities and Exchange Commission (SEC) Form 8-K announcing the proposed combination. The 8-K included ATI’s full-year 2021 financial projections: $731 million in revenues and $119 million in adjusted EBITDA. Separately, and on the same day as the merger announcement, Diab spoke at a presentation for in- vestors to discuss the merger. During that presentation, Diab stated that ATI was “certified as a Great Place to Work,” with “very high retention” and “low turnover” of its physical therapists. The materials that followed the proposed-merger announcement were ATI’s annual SEC Form 10-K, Am. Compl., and a series of proxy statements soliciting votes in favor of the merger from the owners or holders of FVAC stock.. On March 12, 2021, FVAC filed its first proxy on SEC Form Schedule 14A. It stated that ATI had “a competitive compensation model,” “historically been able to realize high retention rates across [the] organization,” “favorable clinician retention rates and engagement scores,” and “[a]ttractive recruiting and retention capabilities … which allows the Company to recruit and retain talent. It also explained that ATI faced hypothetical risks from competition to recruit and retain physical therapists.. And finally, it included 2021 financial projec- tions, namely the same revenue and adjusted EBITDA projections included in the February Form 8-K, as well as estimates valuing ATI’s goodwill at $1,330,085,000 and its tradename and other intangible assets at $644,339,000. Afterward came the proxy materials filed on April 1, which included statements that ATI had “high retention” and “strong retention” of employees, as well as a “superior ability to recruit and retain physical therapists” being “the Employer of Choice for P[hysical] T[herapy] Clinicians” with “[b]est-in-class infrastructure” for retaining physical therapists. The proxy also again contained the 2021 rev- enue and adjusted EBITDA projections previously presented on February 22 and March 12. Relatedly, the next two proxy statements (filed on May 5 and May 14) included the same statements about ATI’s competitive advantages from the March 12 proxy, as well as the same hypothetical risks about competition to recruit and retain physi- cal therapists, the same revenue and adjusted EBITDA projections, and the same estimates valuing ATI’s goodwill and its tradename and other intangible assets. Those same 2021 revenue and EBITDA projections were also included, unchanged, in an additional set of proxy- statement materials filed on May 24, along with a statement that ATI had “[s]ignifi- cant labor savings through [a] more productive staffing model.” ATI released its financial results for the first quarter of 2021 on May 20. Those results touted the opening of 14 new clinics and stated that the Company was “on track to achieve [its] de novo development targets for.” The quarterly re- sults were also incorporated into another proxy from FVAC, which included a state- ment that beginning in the first quarter of 2021, ATI visit volumes rebounded from COVID-related declines, and that “the Company continues to match its clinical staff- ing levels accordingly.” Following all those filings, the merger was finally completed on June 16–17, 2021, and stock from the new combined entity began trading publicly. Post-merger, ATI then submitted a Form S-1 registration statement to the SEC that repeated—one last time—the 2021 financial projections along with the valuations of goodwill, tradename, and other intangibles. C. Attrition None of the public filings that preceded the merger mentioned actual problems with attrition and retention of physical therapists. But several former employees of ATI—confidential sources for the Plain- tiffs—observed attrition and retention problems in the time leading up to the merger. For instance, Source 1, an ATI talent acquisition spe- cialist from May 2019 to September 2021, noticed that, by early 2020, recruits were rejecting ATI’s employment offers almost 50% of the time, mainly because of concerns over compensation.. This rejection rate accompanied a physical-therapist attrition rate of around 40% in late-2020 and early 2021.. For context, Source 3, an ATI revenue cycle analyst until April 2020, observed that before late-2020 the attrition rate “hovered just above 20%.” Source 1 knew about the elevated physical-therapist attrition rate because of weekly reports distributed to her and others. Source 1 also attended quarterly all-personnel meetings.. At one in 2020, Source 1 told Diab and Jordan that certain markets, like Washington D.C., were “really bad for attrition” in part because it was “so difficult to attract and retain clinicians.” At another, Source 1 heard Diab give a “spiel” about “the need to recruit and retain clinicians to support the Company’s growth.” Source 2, another talent acquisition specialist, worked at ATI from October 2020 to August 2021 and oversaw the onboarding of physical therapists. This source also noticed an elevated attrition rate of 41% in late-2020 and also in 2021, driven by worse pay and hours compared to other companies. Source 2 heard Coco (the then-Chief Human Resources Officer) acknowledge reten- tion problems at an HR department lunch in either November or December 2020 or January or February 2021.. Relatedly, Source 7, an ATI talent acquisition manager from June 2015 to August 2020, also heard Coco say that hiring was a “crit- ical priority.”. Source 4, a senior financial analyst from October 2017 to December 2020, was another former employee who noticed increased attrition in 2020. Am. Compl.. Source 4 prepared monthly slide-decks for ATI’s executive leadership that included a monthly scorecard, including a chart with a trend line that detailed climbing attrition rates throughout the whole year of 2020. –04. Similarly, Source 5, a former sales director from March 2016 to March 2021, observed the physical-therapist attrition rate reaching around 40% because employees were overworked. And finally, Source 6, a former ATI clinic director, had monthly calls at the end of 2020 or beginning of 2021 with the then-Chief Operating Officer Ray Wahl who said that ATI needed to “hold onto people because employees were leaving at an alarming rate,” which was “starting to impact the service that ATI was able to provide to patients.”. D. Post-Merger Disclosures Despite the observations of former employees, problems with ATI’s physical- therapist attrition and retention did not publicly surface until after the completion of the SPAC merger (the merger happened in June 2021). On July 26, 2021, post-merger ATI reported its financial results for the second quarter of 2021.Those results revealed that “the acceleration of attrition among therapists in the sec- ond quarter and continuing into the third quarter, combined with the intensifying competition for clinicians in the labor market, prevented [ATI] from being able to meet the demand we have and increased our labor costs.” That led, in turn, to a reduction of the Company’s 2021 full-year revenue and adjusted EBITDA projections: from $731 million to $640–670 million and from $119 million to $60–70 million re- spectively. It also resulted in a lowered estimate for 2021 new-clinic openings: from 90 to 55–60. And finally, the July 26 disclosure was accompanied by the resignation of Coco as CHRO.. ATI’s stock dropped by $4.52 per share from July 26 to 27. Around two weeks later, on August 9, 2021, the post-merger ATI board of di- rectors terminated Diab as CEO. Am. Compl.. The press release accompanying the termination stated that the Board determined that it was the right time for a leadership change. No replacement, interim or full-time, was announced; rather, the board launched a search for a new CEO. That was not the end of the bad news, however. On August 16, ATI announced that it was recognizing non-cash impairment charges for the period ended June 30, 2021, because the values of its trade name and single reporting unit were below their carrying value.. Around two months later, on October 19, 2021, post-merger ATI announced selected preliminary third quarter results for 2021. Am. Compl.. The company further lowered its projected 2021 full-year revenue and adjusted EBITDA: respec- tively, from $640–670 million to $620–630 million and $60–70 million to $40–44 million. ATI also disclosed that it “implemented targeted measures that reduced clin- ical staff attrition” and “made progress toward restoring FTEs [full-time equivalents] with ATI hiring roughly 2 clinicians for every 1 departure in August and September 2021.” The adjustment of financial projections was due to “lower visit vol- ume” linked to the need “to invest[] in [ATI’s] field sales force” to “driv[e] visit growth.” On October 20, ATI’s stock price fell from $3.65 to $2.86 per share.</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Quinones alleges that the Defendants -- specifically Lucchino and Lebel acting in their capacity as Frequency executives -- made fourteen separate false, misleading, incomplete, or inaccurate statements throughout the class period between October 29, 2020, and March 22, 2021, inclusive (the “Class Period”), related to a clinical trial for the company’s key product that were purportedly deceiving to investors. The crux of Quinones’ allegations relates to one of the criteria for admission to the clinical trial: the requirement that all study participants have some form of hearing loss.  Specifically, Frequency conveyed to investors that “all subjects” in the clinical trial “have meaningful word recognition deficits.” Quinones alleges that Lucchino and Lebel knew this was not the case. Quinones therefore claims that the challenged statements are false or misleading and, when combined with the strong inference of scienter created by, inter alia, Lucchino’s increase in stock sales during the Class Period, thus constitute a violation of § 10(b) and § 20(a) of the Securities and Exchange Act of 1934. The Parties Frequency is a publicly traded clinical-stage biotechnology start-up. Lucchino, co-founded Frequency in 2014. Lucchino is the company’s President and Chief Executive Officer. LeBel has been the company’s Chief Development Officer since 2018.. The plaintiffs are a class of shareholders who purportedly purchased Frequency’s common stock at artificially inflated prices between October 29, 2020, and March 22, 2021, inclusive, Quinones claims they were harmed by the false, misleading, incomplete, or inaccurate statements made by Lucchino and Lebel throughout the Class Period. These false or misleading statements ostensibly deceived Quinones into thinking that the FX-322 trial was proceeding according to plan -- despite the Defendant’s alleged knowledge to the contrary. Quinones alleges that they would not have purchased or otherwise acquired Frequency’s stock if Defendants revealed that the study was methodologically flawed. FX-322 Clinical Trial Frequency was founded to develop a hearing loss treatment called FX-322, promoted as a potential treatment for patients with severe sensorineural hearing loss (“SNHL”)., 28. Frequency announced promising safety and efficacy results after the first phase of the FX-322 clinical trial (Phase 1), but this study did not have enough patients fully to evaluate the effects of FX-322 on hearing loss., 31-32. Frequency announced the launch of a Phase 2a trial of FX-322 in October 2019 further to evaluate the efficacy of FX-322 as a treatment for SHNL., 35. The Phase 2a trial of FX-322 ran from September 2020 to December 2020, with study participants receiving weekly injections of either FX-322 or a placebo., 9. Trial participants were tracked weekly after the first injection.. Ultimately, Phase 2a was “unlikely to deliver results that could support the efficacy of the FX-322”. Frequency revealed the disappointing results of the study on the morning of March 23, 2021: The interim results [of Phase 2a] show that four weekly injections in subjects with mild to moderately sever [sic] [SNHL] did not demonstrate improvements in hearings measures versus placebo.... The Phase 2a interim results also showed an unexpected apparent level of hearing benefit in the placebo group that did not occur in previous trials and exceeded well- established published standards, potentially suggesting bias due to trial design. Given these challenges observed in the Phase 2a study design, there was no discernible benefit of FX-322 over placebo. Compl. (emphasis added). The market did not react well to these disappointing results and investors -- including Quinones -- took a beating: Frequency’s common stock plummeted from a share price of $36.29 at the close of trading on March 22, 2021, to $7.99 at the close of trading on March 23, 2021, a 78% drop that erased nearly a billion dollars from Frequency’s market capitalization.. Stock analysts directly attributed this precipitous decline to the revelation that Phase 2a was potentially “bias[ed] due to trial design,” and one analyst noted that “management makes it sound like patients may have been faking worse hearing than they actually had to make sure they could enroll.” 3. Timeline of Statements by the Defendants Quinones alleges that fourteen separate statements made by Lucchino and Lebel throughout the Class Period were false, misleading, incomplete, or inaccurate in violation of 10(b). Most important among these is Lucchino and Lebel’s repeated representation that the FX-322 Phase 2a trial was conducted on an unbiased and appropriate sample population -- specifically that all participants “[had] meaningful word recognition deficits.” Quinones alleges this was known to be untrue and that the statements by Lucchino and Lebel were thus false, misleading, incomplete, and/or inaccurate in violation of 10(b). The following table summarizes the most relevant statements throughout the Class Period, each touched on in more detail below. Statement Date “[A]ll subjects [in Phase 2a] have 10/29/2020 meaningful word-recognition deficits.”. “[A]ll subjects [in Phase 2a] have 01/11/2021 meaningful word recognition deficits.”. Phase 2a’s “[e]ntrance criteria required all 01/11/2021 subjects have meaningful word recognition deficits.”. “Every subject has to have a deficit. Now we 01/19/2021 have not disclosed what the deficit is to minimize any bias from patients but everyone has to fall within a certain range in order to qualify for the study. a. October 2020 The Class Period began on October 29, 2020, when Frequency issued a press release entitled “Frequency Therapeutics Announces Expanded FX-322 Clinical Development and Upcoming Day- Phase 2a Analysis” and posted a corporate slide presentation to the company website. Compl.. The press release stated, inter alia, that all patients in Phase 2a had “mild to moderately severe acquired SNHL.” The corporate slide presentation also stated that, in Phase 2a, “all subjects have meaningful word recognition deficits.” (emphasis added). Quinones alleges that this statement was materially false, misleading, incomplete, or inaccurate, because, as Lucchino and Lebel knew or recklessly disregarded, not all Phase 2a enrolled patients met the study’s inclusion criteria of having a meaningful word recognition deficit.. b. January 2021 On January 11, 2021, after the Phase 2a clinical trial had ended, the Defendants once again stated unequivocally in a slide presentation -- posted to the company website and also filed with the SEC via Form 8-K -- that “[a]ll subjects [in Phase 2a] have meaningful word recognition deficits” and that Phase 2a’s “[e]ntrance criteria required all subjects have meaningful word recognition deficits.” (emphasis added). Lebel reiterated this requirement the next week at an investor presentation attended by Lucchino and others: [I]n the phase 1 safety study, there was not a requirement for anybody to fall within a range of word recognition.... In the phase 2A study, we’ve modified that. Every subject has to have a deficit. Now we have not disclosed what that deficit is to minimize any bias from the patients but everybody has to fall within a certain range in order to qualify for the study. (emphasis added). Like the similar statements from October, Quinones alleges that these January statements were materially false, misleading, incomplete, or inaccurate, because, as Lucchino and Lebel knew or recklessly disregarded, not all Phase 2a enrolled patients met the study’s inclusion criteria. 4. Support for Statements Being Misleading a. Information From Confidential Witness Quinones’ confidential witness, CW1, was the Senior Manager of Clinical Operations at Frequency from January 2018 to September 2021.. CW worked with Lebel and others at Frequency to develop the design of the FX-322 Phase 2a clinical trial, which according to Quinones, made them well-situated to have inside information regarding Phase 2a –- particularly regarding the sample population. CW also oversaw the implementation of Phase 2a once the clinical trial began. CW claims to have “confirmed that multiple patients enrolled in Phase 2a had qualified for and participated in the study despite not having met the inclusion criteria for the study” and that “such individuals simply ‘faked being deaf’ in order to enroll in Phase 2A.” Additionally, CW “revealed that during the class period, [Lucchino and Lebel] were well aware that the Phase 2a’s inclusion and exclusion criteria... were being disseminated online....” CW also claims that multiple “investigators” (i.e. the doctors who administered the Phase 2a clinical trial) came forward with concerns about a discrepancy regarding the patients’ ability to hear sounds at varying decibel levels.. CW claims that several investigators contacted Lebel directly to express their concerns about these discrepancies. b. Blog Posts In addition to guaranteeing that all participants in the FX-322 Phase 2a trial had meaningful hearing deficits, the Defendants repeatedly represented that the criteria for admission to the study were not publicly disclosed. Quinones alleges these statements are undercut by a plethora of blog posts on numerous online message boards, which, inter alia, specifically reference the hearing deficit threshold (85% or less word score recognition) that was purportedly not publicly disclosed. For example, one forum, “Tinnitus Talk,”1 has an entire message board related to FX-322, Tinnitus is symptom of an underlying issue with the auditory system and commonly presents as a ringing in one or both ears but can also sound like roaring, clicking, hissing, or buzzing. See Compl.. including the Phase 2a trial.. As of July 2020, the FX-322 thread had over 9,000 posts and the thread is nearly 650 pages long. Quinones alleges that those suffering from tinnitus believed FX-322 was a viable treatment option, based at least in part on comments made by Lebel,2 and that, as a result, those seeking treatment for tinnitus infiltrated the Phase 2a trial despite not actually having a meaningful hearing deficit.. c. Lucchino’s Stock Sales Finally, Quinones claims that the rate of Lucchino’s stock sales increased throughout the Class Period and increased dramatically in December 2020 when phase 2A of the FX-322 study concluded. During the Class Period, Lucchino sold an average of 57,000 shares per month, an average significantly higher than the average monthly stock sales prior In July 2020, LeBel was interviewed on a podcast called “Tinnitus Talk” (which is related to the online forum). Lebel was asked whether there were “any anecdotes or patient testimonials that kind of corroborate” that FX-322 “might have a profound effect on tinnitus.” He responded: “[W]e don’t have data. Certainly there is anecdotal reports as patients have come back and visited with ENTs when they have had conversations with them about how they are doing. Some of them have offered that they have had improvements in tinnitus, there’s nothing that we can quantitate there. Again, it adds to the excitement of the opportunity” of FX-322. </t>
+  </si>
+  <si>
+    <t>Cruise is a majority-owned subsidiary of GM, which referred to Cruise in its public filings as “GM Cruise” and GM’s “global segment responsible for the development and commercialization of [autonomous vehicle (“AV”)] technology.”. Plaintiffs allege that Cruise’s AV technology was paramount to the future of GM, with “Cruise [a]s a key element of GM’s growth strategy.”. In February 2021, Cruise was valued at about $30 billion, more than half of GM’s market capitalization throughout the Class Period, and GM publicly projected that Cruise had the potential to deliver $50 billion in annualized revenues by the end of the decade. According to plaintiffs, defendants made various misrepresentations to investors about the state and capabilities of Cruise’s AV technology during the Class Period. Defendants allegedly represented that Cruise’s AV technology had reached the point where Cruise could already operate a revenue-generating, fully driverless robotaxi business without any additional research and development (“R&amp;D”). For example, as Cruise’s then-CEO speaking to GM investors on October 6, 2021, Ammann stated that Cruise had exited the “R&amp;D phase,” by “solv[ing] that engineering challenge of a generation of building a self-driving system that can drive with a human or better level of performance,” and that this achievement “marked the beginning” of Cruise’s pivot to “commercialization.” Similarly, as Ammann’s successor as Cruise’s CEO, Vogt stated on March 10, 2022 that “from a technical standpoint, there’s basically zero incremental work to get to revenue.”. Plaintiffs allege that Cruise’s entire enterprise was to commercialize its AVs and that its massive contribution to GM’s valuation depended on its ability to do so., 49. Plaintiffs allege that defendants also claimed Cruise AVs could drive safely, reliably, and legally without input from humans. For example, Ammann claimed on October 6, 2021 that Cruise AVs “can operate without a human in the loop now.”. Defendants likewise described Cruise AVs as “fully autonomous,” “fully driverless,” and “truly driverless” at various times to investors throughout the Class Period. For example, as Cruise’s Chief Operating Officer (“COO”), West stated on March 6, 2023, “[W]e launched full driverless service a little over a year ago,”; and on an October 27, 2021 GM earnings call, Barra, who was GM’s CEO and Chair of Cruise’s Board of Directors, touted Cruise’s ability to provide “full driverless ride-hail service” in San Francisco,. Defendants also described Cruise AVs as having “Level 4” autonomy, which is a reference to the five levels of autonomy defined by the Society for Automotive Engineers Taxonomy (the “Taxonomy”). For example, Parks, as a GM Executive Vice President, claimed that Cruise was “launching a driverless fully autonomous Level 4 vehicle,”; and Jacobson, as GM’s CFO and a GM Executive Vice President, stated that Cruise’s AV technology was “full Level 4,”. Cruise allegedly explained, during the Class Period, that there was an “essential expectation” that an AV referred to as “Level 4” or “fully driverless” must be “capable of driving fully autonomously 100% of the time.”. Finally, throughout the Class Period, Barra allegedly claimed at various times that Cruise’s AV technology was already safer than a human driver., 268, 354. However, these representations were allegedly false and misleading. The complaint contains detailed allegations from former Cruise and GM employees serving as confidential witnesses (“CWs”), media reports, and complaints submitted to the California Department of Motor Vehicles (the “DMV”), which according to plaintiffs, attest to persistent and severe problems with Cruise AVs. According to plaintiffs, the CW allegations show that Cruise AVs could not operate without frequent input from humans, and they could not operate as functional vehicles, even with human assistance—that is, they did not drive safely, reliably, or legally, as defendants claimed. For example, the allegations show that Cruise relied on humans to remotely operate its AVs; Cruise AVs stalled or failed frequently, requiring physical retrieval by humans; Cruise AVs failed to reliably recognize and drive safely around children; Cruise AVs engaged in “unsafe” and “erratic” driving, e.g., (describing Cruise AV’s “erratic and high[ly] unpredictable stop, as if it was about to run over a pedestrian,” which was a “a computer error, locking the[] brakes” and causing a rear end collision); this unsafe and erratic driving caused numerous crashes and internal safety concerns that went unresolved; and Cruise AVs suffered from additional functionality and safety problems, such as an inability to consistently recognize pedestrians or children or large holes in the road. Plaintiffs allege that defendants’ fraud regarding the state and capabilities of Cruise’s AV technology started unwinding after a Cruise AV’s crash on October 2, 2023 (the “October Crash” or “Accident”). That evening, a human-driven vehicle struck a pedestrian in San Francisco, launching the pedestrian into the pathway of a Cruise AV in the adjacent lane.. The AV then hit the pedestrian and came to an initial stop, allegedly pinning her beneath it. Plaintiffs allege that although the Cruise AV’s camera could see the pedestrian it had struck, it began driving again with the pedestrian underneath—dragging her about 20 feet down the street and causing serious injuries. Within hours of the Accident, high-ranking Cruise executives, including Cruise’s then-CEO and CTO Vogt, became aware of these details. Plaintiffs allege that Vogt, Cruise, and GM, however, made the conscious decision to misrepresent the circumstances of the Accident to the public by disseminating incomplete video footage and issuing media statements claiming the AV had come to a complete stop upon impact, while concealing that the AV subsequently continued driving and dragging the pedestrian. The truth about the October Crash and Cruise’s AV technology was allegedly revealed through three corrective disclosures on October 24, October 26, and November 8, 2023. According to plaintiffs, the corrective disclosures revealed that the Cruise AV had dragged the pedestrian rather than safely coming to a stop; the DMV was suspending Cruise AV permits after the DMV found the AVs posed an “unreasonable risk to public safety,”; federal authorities were investigating Cruise for its AVs’ allegedly unsafe and erratic driving behavior; and Cruise was pausing all AV operations nationwide, recalling its entire fleet, conducting an investigation led by an engineering firm, searching for a Chief Safety Officer, and overhauling its internal processes relating to safety, transparency, and community engagement. The corrective disclosures allegedly caused GM’s stock price to decline by about 2.3%, about 4.8%, and over 3%, respectively. GM lost billions in market capitalization, and investors suffered substantial losses as a result. After the Class Period, Cruise released an internal report by the law firm Quinn Emanuel Urquhart &amp; Sullivan, LLP (the “Quinn Report”), which investigated the October Crash and laid out certain facts regarding Cruise’s handling of its response to the Accident. According to plaintiffs, the Quinn Report found that Vogt knowingly directed the dissemination of the misstatements concerning the October Crash and pedestrian dragging. Plaintiffs allege that this behavior is consistent with Cruise’s pattern of otherwise deceptive behavior, noting, for example, an administrative ruling that Cruise made “misleading” statements in the context of its disclosures to regulators about the October Crash and that by “withholding information... Cruise misled the DMV.”. In the aftermath of the October Crash, plaintiffs filed this putative securities class action. Plaintiffs claim under Section 10(b) of the Exchange Act, (“Section 10(b)”), and Rule 10b-5(b) that defendants are liable for securities fraud in connection with the sale of GM securities based on alleged misstatements, which fall into two broad categories—statements made before the October Crash concerning Cruise’s AV technology (the “Technology Statements”) (the “Technology Statement Claims”) and statements to the press immediately after the October Crash (the “Accident Statements”) (the “Accident Statement Claims”). . Plaintiffs further claim under Section 10(b) and Rules 10b-5(a) and (c) that defendants are liable for securities fraud based on an actionable scheme (the “scheme liability claims”) and under Section 20(a) of the Exchange Act, (“Section 20(a)”), that Barra, Jacobson, and Parks are liable as control persons of GM and Cruise and Vogt, West, and Ammann are liable as control persons of Cruise.2 -</t>
+  </si>
+  <si>
+    <t>Plaintiffs categorize the allegations into four areas, including: declaring the transition to large-scale development as a success and touting its benefits despite having no basis to know it would work as intended; falsely stating that “manufacturing mode” was the product of gradual learning and verified techniques despite being experimental; issuing non-risk adjusted production forecasts despite internal understanding that such forecasts were inaccurate and overstated; and stating that large-scale development projects with higher risk exposure were balanced by projects with lower risk exposure, when in reality exposure was company-wide. The Court must decide whether the complaint states a claim against Defendants for violations of § 10(b) of the Act and Rule 10b-5 and if it states a secondary § 20 control person claim against the Individual Defendants. Defendants challenge two elements of the § 10(b) claim: falsity and scienter, and also challenge the § 20 claim for lack of properly pleading a primary claim. Plaintiffs’ claims are based on personal knowledge; Concho’s filings with the U.S. Securities and Exchange Commission (“SEC”); research reports by securities and financial analysts; transcripts of Concho’s conference calls with analysts and investors; Concho’s presentations, press releases, and reports; news and media reports concerning Concho, interviews with several former Concho employees; Concho stock price data; and other significant data.. Concho Before the Class Period Concho was a publicly traded oil and natural gas company engaged in the acquisition, development, exploration, and production of oil and natural gas properties in the Permian Basin. Defendant Leach was Concho’s Chief Executive Officer (“CEO”) and the Chairman of the Company’s Board of Directors beginning in 2006. Defendant Harper was appointed as Concho’s President in May 2017, and as Concho’s Chief Financial Officer (“CFO”) in May 2016; he served as CFO until January 2019. Harper oversaw Concho’s operations as well as the Company’s legal, accounting, information technology, and security functions. Defendant Giraud was appointed as Concho’s Executive Vice President (“EVP”) in May 2017 and was named as the successor for Concho’s Chief Operating Officer (“COO”). In January 2019, he was appointed as COO. Defendant Wright preceded Giraud as Concho’s COO from November 2010 until January 2019. Wright served as Concho’s Executive Vice President from November 2013 until January 2019. Defendant Schroer was Concho’s Treasurer and Senior Vice President during the class period, Chief Accounting Officer until January 2019, and CFO beginning in January 2019. Prior to the class period, Concho used established methods of vertical and horizontal drilling in the Permian Basin. Even though industry predicted producers in the Permian Basin like Concho were at the “end of gains[,] efficiency[,] and improvement,” Concho believed it had found the next significant technological advancement to “maximize ultimate recovery, efficiencies and returns.” Concho’s production was at an “inflection point” which the company claimed would allow for a technological transition to maintain its established efficiencies, returns, and risk management in its historically well-managed portfolio. If the technological transition was successful, it would create a renaissance in the Permian Basin resembling the advent of hydraulic fracturing. The end of 2017 marked Concho’s transition to “large-scale development,” “manufacturing style development,” “manufacturing mode,” or “cube development.” Concho wanted to retain its position as “a leader in [] development... in the Permian” Basin and this was “one way that [Concho planned on] doing that.” Concho allocated “93% of [its] capital program [] to drilling and completion activities, with approximately 65% of that capital directed towards large-scale manufacturing projects.” Defendants advised it “expect[ed] to grow total production at a compound annual growth rate of 20% from 2017 to 2020.” On December 31, 2017, Defendants estimated proved reserves increased 17% from year-end 2016, proved developed reserves increased 26% from year-end 2016, and that proved developed reserves represented about 70% of total proved reserves.6 Proved Reserves are reserves that are estimated commercially recoverable with a 90% level of certainty and carry the lowest level of risk. (at.) The market relies on a company’s Proved Reserves to establish the valuation of a Company because the ability to generate future revenue depends upon how much of its discovered resources can be reliably extracted. Publicly traded oil and natural gas companies are required to include Proved Reserves information in a company’s financial reporting to assist investors and analysts in modeling future returns. Proven Reserves are broken up into three categories: (a) “Proved Developed Producing” (PDP) reserves are those for which the well is completed, and the reserves are currently being produced; (b) “Proved Developed Non-Producing” (PDNP) reserves are those for which the well-bore exists, and the reserves are identified but are not currently producing; (c) “Proved Undeveloped” (PUD) reserves are those determined to be economically recoverable utilizing existing technology and assets, but where the well has not yet been completed. PUD represents the lowest risk adjustment for uncompleted oil and natural gas projects. A reserve may also be categorized as Probable, Possible, or Contingent.  Probable reserves are those with a likelihood of commercial extraction of over 50% but under 90%, while Possible Reserves are those with odds of commercial extraction under 50%, but higher than 10%. Contingent resources are those estimated to be potentially recoverable, but / Defendants 2017 annual report of SEC Form 10-K included a risk factor that warned, “[m]ulti- well pad drilling and project development may result in volatility in our operating results” and it is used “where practical.” The 10-K also indicated the proved reserves in the Northern Delaware Basin were estimated% of total proved reserves, and the Southern Delaware Basin was% of total proved reserves. B. Concho’s Representations During the Class Period In February 2018, Concho announced 7-well, 8-well, 10-well, and 13-well large-scale developments that showed “strong performance” and “outstanding results’” which would serve as an empirical point for moving forward with larger projects in the North and South Delaware Basin. Defendant Leach assured investors that Concho’s prior efforts had “validated well spacing, lateral placement, and completion design” which allowed them to “give guidance [and] forecast the things that [they were] aware of at the time [they] give the guidance.” Defendant Harper explained the Company “had successfully made the transition” because they “modeled the outcome as [they] see it based on the spacing that has either already happened or will happen in the future.” In March 2018, Concho announced plans to speed up development of large-scale projects, despite simultaneously acknowledging the company “did not ‘have all the answers’” and the program was a “work in progress.” Harper equated the large-scale development with what industry commonly refers to as cube development and alluded to this being the method it would use to begin a 20 plus well project. Concho which are not considered to be commercially recoverable with any reasonable degree of certainty due to any number of contingencies. / 49 indicated the “well documented” benefit of the technique was the “drilling synergies” that “generates cost savings... [and] higher recoveries” and would be a “more effective way to complete [] wells.” Despite an “increased percentage of capital going towards... larger-scale projects” Harper assured investors they should “expect more of the same” in the 2018 budget as was seen “in previous years.” This was seemingly because, as he indicated, the large-scale projects were “dispersed amongst [Concho’s] asset base.” Concho then announced it would acquire RSP Permian, Inc. for $9.5 billion in an all-stock transaction.  Leach indicated the purchase was expected to realize more than $60 million in annual corporate savings and over $2 billion in operational synergies.)The company also planned to move the newly acquisitioned assets into manufacturing mode to “generate cost savings and minimize[] parent-child locations.” The $2 billion in operational synergies Harper described was going to be achieved by “preventing parent-child relationship[s through] larger-scale development [and] shared infrastructure.” In May 2018, Concho announced six multi-zone “Key Projects” planned for 2018 and 2019, including a 6+ well project, an 8+ well project, three 10+ well projects, and a 23 well project. The 23 well project was called the “Dominator” and received regulatory approval the previous month, in April. The project began early stages of development in April and completion in February 2019. Harper was already projecting that “large-scale project development [would] drive the quarterly production growth trajectory. Noting a great start to the year, [they] raised [the] full year 2018 production outlook” because “results [had] been very strong.” Giraud explained they could make this projection because it was not a “switch get[ting] flipped” or a big step change” from the company’s historical approach. He explained the evolution the company went through, from first 2-well projects, to 3-well projects, to then 6 and 8-well projects, all leading to what the optimal development plan would be in simultaneously developing a square mile. He acknowledged that in order to achieve this scale a company needs a very sizable balance sheet and technical team to withstand the challenges of the transition to the development mode technique. (at.) Giraud assured investors the company went through a discovery, delineation, and development process to allow for an empirically based transition to the new technique. This included knowing what the well “spacing need[ed] to be” because the company was further down the line and in a “later stage of innings” for data collection.Leach explained that the positive first quarter operational and financial results were due to the company-wide focus on large-scale product development that enabled it to “maximize recoveries, efficiencies, and returns.” In August 2018, Giraud explained the company coordinated over a year in advance to develop the plan for the Dominator project, and it was supported with data from a steady years long evolution of testing different spacing within a drilling zone and between drilling zones. He touted the technique as unlocking significant value because it optimized well performance and increased resource recovery. In September 2018, Leach acknowledged the Dominator was an “extreme example of manufacturing mode” and Concho’s “most aggressive multi-well pad.” He explained the transition’s purpose was to minimize parent-child interference and that the wells continued to get better and more cost-efficient. Leach assured investors that the company took a portfolio approach to mitigating risk and the scale of the program helped to manage the risk of the technique. He further explained Concho’s ability to “balance risk” was “the most important thing that [Concho] do[es] that creates success for the company.”  In October 2018, Concho projected that production growth would increase by more than 25% from fourth quarter 2018 to fourth quarter 2019, and the planned activity would drive two- year crude oil and total production compound annual growth rates of 30% and 25% respectively from 2018 to 2020. Giraud again assured investors that the new technique would minimize the impact of parent-child effects because the company built “type curves” and other “internal modeling on the results they [had] already seen. He explained that the results were consistent with the company’s expectations, and as such, it was baked into the 2019 and 2020 production outlook. Leach acknowledged that minimizing the effects would be different by zone and area, but despite its complexity, the company was developing a program to minimize interference. In February 2019, Defendant Harper stated that Concho’s manufacturing mode development “continue[s] to demonstrate the prudence of this approach, which mitigates parent- child impacts, drives operational efficiencies and maximizes the long-term value of our investments.” In March 2019, Harper told investors Concho has “historically been pretty conservative in the way [it] accounted for inventory and well spacing” and “that’s been [Concho’s] view up till now.”  In May 2019, Defendant Leach stated that he saw “strong early production out of our latest projects, including the Dominator,” later adding that “returns look pretty good for us” and that such projects “drive[] a lot of value creation.” C. Concho’s Representations After the Class Period On July 31, 2019, Concho released its financial results for the second quarter 2019 after the close of trading. Concho advised it reduced its active rig count, production targets were being reduced for the remainder of the year, but there would not be a parallel reduction in its capital budget. Concho blamed the Dominator and it’s too-tight well spacing for the disparity between its financial projections and in its financial results. But Concho would reveal the next day that the Dominator was not the only densely spaced project impacting its financial results. Concho announced it would immediately change its trajectory to wider spaced wells in an attempt to reign in the expenditure of transitioning to manufacturing mode in order to stay on budget. Concho stock price decreased by 22% from the July 31, 2019 closing price of $97.68 per share.  The stock traded at the highest volume, 17,881,152 shares, for the entirety of the Class Period by over 5 million shares. The stock closed at $75.97 per share on August 1, 2019. Analysts were at a consensus. Concho “blindsided the market with a sharp reduction in 2H oil volume guidance,” because of the “sharp contrast to what was contemplated in early 2019” and the resulting about face to wider well spacing. In the following days, analysts decreased Concho’s stock price target repeatedly, indicated the decline placed the company at risk of being acquired, and challenged the company to “reconcile the updated oil guide from the previous oil guide and quantify how much of the lower oil output was driven by the spacing tests vs. lower activity and why capex remained the same.” The outlook did not change in the following months. Leach indicated in 2020 and beyond fewer wells would be developed, all using wider spacing, but that even so, there would not be an increase in capital efficiency until 2020. The company reduced its proved reserves by 16% primarily due to the “Company’s recent capital programs that included projects testing tighter well spacing.” Concho also released a more exacting risk warning related to tight well spacing. On October 19, 2020, ConocoPhillips and Concho announced that they entered into an agreement to combine the two companies in a transaction valued at $9.7 billion, nearly the same price Concho had acquired RSP.</t>
   </si>
 </sst>
 </file>
@@ -447,18 +370,12 @@
       <name val="Calibri"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="2">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFFF00"/>
-        <bgColor indexed="64"/>
-      </patternFill>
     </fill>
   </fills>
   <borders count="2">
@@ -488,18 +405,22 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="7">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -715,11 +636,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:AF1000"/>
+  <dimension ref="A1:AF994"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane xSplit="1" topLeftCell="B1" activePane="topRight" state="frozen"/>
-      <selection pane="topRight" activeCell="A21" sqref="A19:A21"/>
+      <selection pane="topRight" activeCell="B19" sqref="B19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.41015625" defaultRowHeight="15" customHeight="1" x14ac:dyDescent="0.5"/>
@@ -894,43 +815,31 @@
       </c>
     </row>
     <row r="3" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A3" s="5" t="s">
-        <v>40</v>
+      <c r="A3" s="2" t="s">
+        <v>41</v>
       </c>
       <c r="B3" s="2" t="s">
-        <v>41</v>
-      </c>
-      <c r="C3" s="5" t="s">
-        <v>38</v>
+        <v>42</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D3" s="2" t="s">
         <v>35</v>
       </c>
       <c r="E3" s="2" t="s">
-        <v>42</v>
+        <v>36</v>
       </c>
       <c r="F3" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="G3" s="2" t="s">
-        <v>43</v>
-      </c>
-      <c r="H3" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I3" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="J3" s="2" t="s">
-        <v>35</v>
-      </c>
     </row>
     <row r="4" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A4" s="2" t="s">
+        <v>43</v>
+      </c>
+      <c r="B4" s="2" t="s">
         <v>44</v>
-      </c>
-      <c r="B4" s="2" t="s">
-        <v>45</v>
       </c>
       <c r="C4" s="2" t="s">
         <v>34</v>
@@ -947,10 +856,10 @@
     </row>
     <row r="5" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A5" s="2" t="s">
+        <v>45</v>
+      </c>
+      <c r="B5" s="2" t="s">
         <v>46</v>
-      </c>
-      <c r="B5" s="2" t="s">
-        <v>47</v>
       </c>
       <c r="C5" s="2" t="s">
         <v>34</v>
@@ -964,57 +873,83 @@
       <c r="F5" s="2" t="s">
         <v>35</v>
       </c>
+      <c r="G5" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="H5" s="2" t="s">
+        <v>35</v>
+      </c>
+      <c r="I5" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J5" s="2" t="s">
+        <v>47</v>
+      </c>
     </row>
     <row r="6" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A6" s="2" t="s">
+      <c r="A6" s="3" t="s">
         <v>48</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="3" t="s">
         <v>49</v>
       </c>
-      <c r="C6" s="2" t="s">
+      <c r="C6" s="3" t="s">
         <v>34</v>
       </c>
-      <c r="D6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="E6" s="2" t="s">
+      <c r="D6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>36</v>
       </c>
-      <c r="F6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="G6" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="H6" s="2" t="s">
-        <v>35</v>
-      </c>
-      <c r="I6" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="J6" s="2" t="s">
-        <v>50</v>
-      </c>
+      <c r="F6" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G6" s="3"/>
+      <c r="H6" s="3"/>
+      <c r="I6" s="3"/>
+      <c r="J6" s="3"/>
+      <c r="K6" s="3"/>
+      <c r="L6" s="3"/>
+      <c r="M6" s="3"/>
+      <c r="N6" s="3"/>
+      <c r="O6" s="3"/>
+      <c r="P6" s="3"/>
+      <c r="Q6" s="3"/>
+      <c r="R6" s="3"/>
+      <c r="S6" s="3"/>
+      <c r="T6" s="3"/>
+      <c r="U6" s="3"/>
+      <c r="V6" s="3"/>
+      <c r="W6" s="3"/>
+      <c r="X6" s="3"/>
+      <c r="Y6" s="3"/>
+      <c r="Z6" s="3"/>
+      <c r="AA6" s="3"/>
+      <c r="AB6" s="3"/>
+      <c r="AC6" s="3"/>
+      <c r="AD6" s="3"/>
+      <c r="AE6" s="3"/>
+      <c r="AF6" s="3"/>
     </row>
     <row r="7" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A7" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B7" s="3" t="s">
         <v>51</v>
-      </c>
-      <c r="B7" s="3" t="s">
-        <v>52</v>
       </c>
       <c r="C7" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D7" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E7" s="3" t="s">
         <v>36</v>
       </c>
       <c r="F7" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="G7" s="3"/>
       <c r="H7" s="3"/>
@@ -1044,437 +979,291 @@
       <c r="AF7" s="3"/>
     </row>
     <row r="8" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A8" s="3" t="s">
+      <c r="A8" s="2" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="B8" s="3" t="s">
-        <v>54</v>
-      </c>
-      <c r="C8" s="3" t="s">
+      <c r="C8" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E8" s="3" t="s">
+      <c r="E8" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F8" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="G8" s="3"/>
-      <c r="H8" s="3"/>
-      <c r="I8" s="3"/>
-      <c r="J8" s="3"/>
-      <c r="K8" s="3"/>
-      <c r="L8" s="3"/>
-      <c r="M8" s="3"/>
-      <c r="N8" s="3"/>
-      <c r="O8" s="3"/>
-      <c r="P8" s="3"/>
-      <c r="Q8" s="3"/>
-      <c r="R8" s="3"/>
-      <c r="S8" s="3"/>
-      <c r="T8" s="3"/>
-      <c r="U8" s="3"/>
-      <c r="V8" s="3"/>
-      <c r="W8" s="3"/>
-      <c r="X8" s="3"/>
-      <c r="Y8" s="3"/>
-      <c r="Z8" s="3"/>
-      <c r="AA8" s="3"/>
-      <c r="AB8" s="3"/>
-      <c r="AC8" s="3"/>
-      <c r="AD8" s="3"/>
-      <c r="AE8" s="3"/>
-      <c r="AF8" s="3"/>
     </row>
     <row r="9" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A9" s="6" t="s">
+      <c r="A9" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="B9" s="3" t="s">
         <v>55</v>
       </c>
-      <c r="B9" s="3" t="s">
+      <c r="C9" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D9" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E9" s="2" t="s">
+        <v>36</v>
+      </c>
+      <c r="F9" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A10" s="3" t="s">
         <v>56</v>
       </c>
-      <c r="C9" s="6" t="s">
-        <v>38</v>
-      </c>
-      <c r="D9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E9" s="3" t="s">
+      <c r="B10" s="3" t="s">
         <v>57</v>
       </c>
-      <c r="F9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" s="3" t="s">
-        <v>42</v>
-      </c>
-      <c r="H9" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I9" s="3"/>
-      <c r="J9" s="3"/>
-      <c r="K9" s="3"/>
-      <c r="L9" s="3"/>
-      <c r="M9" s="3"/>
-      <c r="N9" s="3"/>
-      <c r="O9" s="3"/>
-      <c r="P9" s="3"/>
-      <c r="Q9" s="3"/>
-      <c r="R9" s="3"/>
-      <c r="S9" s="3"/>
-      <c r="T9" s="3"/>
-      <c r="U9" s="3"/>
-      <c r="V9" s="3"/>
-      <c r="W9" s="3"/>
-      <c r="X9" s="3"/>
-      <c r="Y9" s="3"/>
-      <c r="Z9" s="3"/>
-      <c r="AA9" s="3"/>
-      <c r="AB9" s="3"/>
-      <c r="AC9" s="3"/>
-      <c r="AD9" s="3"/>
-      <c r="AE9" s="3"/>
-      <c r="AF9" s="3"/>
-    </row>
-    <row r="10" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A10" s="2" t="s">
-        <v>58</v>
-      </c>
-      <c r="B10" s="2" t="s">
-        <v>59</v>
-      </c>
-      <c r="C10" s="2" t="s">
+      <c r="C10" s="3" t="s">
         <v>34</v>
       </c>
       <c r="D10" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E10" s="2" t="s">
-        <v>36</v>
+      <c r="E10" s="3" t="s">
+        <v>58</v>
       </c>
       <c r="F10" s="3" t="s">
         <v>35</v>
       </c>
+      <c r="G10" s="3"/>
+      <c r="H10" s="3"/>
+      <c r="I10" s="3"/>
+      <c r="J10" s="3"/>
+      <c r="K10" s="3"/>
+      <c r="L10" s="3"/>
+      <c r="M10" s="3"/>
+      <c r="N10" s="3"/>
+      <c r="O10" s="3"/>
+      <c r="P10" s="3"/>
+      <c r="Q10" s="3"/>
+      <c r="R10" s="3"/>
+      <c r="S10" s="3"/>
+      <c r="T10" s="3"/>
+      <c r="U10" s="3"/>
+      <c r="V10" s="3"/>
+      <c r="W10" s="3"/>
+      <c r="X10" s="3"/>
+      <c r="Y10" s="3"/>
+      <c r="Z10" s="3"/>
+      <c r="AA10" s="3"/>
+      <c r="AB10" s="3"/>
+      <c r="AC10" s="3"/>
+      <c r="AD10" s="3"/>
+      <c r="AE10" s="3"/>
+      <c r="AF10" s="3"/>
     </row>
     <row r="11" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A11" s="2" t="s">
+        <v>59</v>
+      </c>
+      <c r="B11" s="2" t="s">
         <v>60</v>
-      </c>
-      <c r="B11" s="3" t="s">
-        <v>61</v>
       </c>
       <c r="C11" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E11" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F11" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
     </row>
     <row r="12" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A12" s="3" t="s">
+      <c r="A12" s="2" t="s">
+        <v>61</v>
+      </c>
+      <c r="B12" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="B12" s="3" t="s">
-        <v>63</v>
-      </c>
-      <c r="C12" s="3" t="s">
+      <c r="C12" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E12" s="3" t="s">
-        <v>64</v>
+        <v>47</v>
+      </c>
+      <c r="E12" s="2" t="s">
+        <v>36</v>
       </c>
       <c r="F12" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G12" s="3"/>
-      <c r="H12" s="3"/>
-      <c r="I12" s="3"/>
-      <c r="J12" s="3"/>
-      <c r="K12" s="3"/>
-      <c r="L12" s="3"/>
-      <c r="M12" s="3"/>
-      <c r="N12" s="3"/>
-      <c r="O12" s="3"/>
-      <c r="P12" s="3"/>
-      <c r="Q12" s="3"/>
-      <c r="R12" s="3"/>
-      <c r="S12" s="3"/>
-      <c r="T12" s="3"/>
-      <c r="U12" s="3"/>
-      <c r="V12" s="3"/>
-      <c r="W12" s="3"/>
-      <c r="X12" s="3"/>
-      <c r="Y12" s="3"/>
-      <c r="Z12" s="3"/>
-      <c r="AA12" s="3"/>
-      <c r="AB12" s="3"/>
-      <c r="AC12" s="3"/>
-      <c r="AD12" s="3"/>
-      <c r="AE12" s="3"/>
-      <c r="AF12" s="3"/>
+        <v>47</v>
+      </c>
     </row>
     <row r="13" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A13" s="2" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B13" s="2" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
       <c r="C13" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D13" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="E13" s="2" t="s">
+        <v>65</v>
+      </c>
+      <c r="F13" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="14" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A14" s="2" t="s">
+        <v>66</v>
+      </c>
+      <c r="B14" s="2" t="s">
+        <v>67</v>
+      </c>
+      <c r="C14" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="E14" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="F13" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="14" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A14" s="5" t="s">
-        <v>67</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="F14" s="3" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A15" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="C14" s="5" t="s">
+      <c r="B15" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="D14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E14" s="2" t="s">
+      <c r="C15" s="2" t="s">
         <v>70</v>
       </c>
-      <c r="F14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="G14" s="2" t="s">
-        <v>71</v>
-      </c>
-      <c r="H14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="I14" s="2" t="s">
-        <v>72</v>
-      </c>
-      <c r="J14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="K14" s="2" t="s">
-        <v>73</v>
-      </c>
-      <c r="L14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M14" s="2" t="s">
-        <v>74</v>
-      </c>
-      <c r="N14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="O14" s="2" t="s">
-        <v>75</v>
-      </c>
-      <c r="P14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q14" s="2" t="s">
-        <v>76</v>
-      </c>
-      <c r="R14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S14" s="2" t="s">
-        <v>77</v>
-      </c>
-      <c r="T14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="U14" s="2" t="s">
-        <v>78</v>
-      </c>
-      <c r="V14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W14" s="2" t="s">
-        <v>79</v>
-      </c>
-      <c r="X14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y14" s="2" t="s">
-        <v>80</v>
-      </c>
-      <c r="Z14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA14" s="2" t="s">
-        <v>81</v>
-      </c>
-      <c r="AB14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AC14" s="2" t="s">
-        <v>82</v>
-      </c>
-      <c r="AD14" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AE14" s="2" t="s">
-        <v>83</v>
-      </c>
-      <c r="AF14" s="2" t="s">
+      <c r="D15" s="3" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="15" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A15" s="5" t="s">
-        <v>84</v>
-      </c>
-      <c r="B15" s="2" t="s">
-        <v>85</v>
-      </c>
-      <c r="C15" s="5" t="s">
-        <v>86</v>
-      </c>
-      <c r="D15" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E15" s="2" t="s">
-        <v>86</v>
+        <v>34</v>
       </c>
       <c r="F15" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G15" s="2" t="s">
-        <v>86</v>
+        <v>71</v>
       </c>
       <c r="H15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="I15" s="2" t="s">
-        <v>86</v>
+        <v>72</v>
       </c>
       <c r="J15" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="K15" s="2" t="s">
-        <v>87</v>
+        <v>73</v>
       </c>
       <c r="L15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="M15" s="2" t="s">
-        <v>88</v>
+        <v>74</v>
       </c>
       <c r="N15" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="O15" s="2" t="s">
-        <v>89</v>
+        <v>75</v>
       </c>
       <c r="P15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="Q15" s="2" t="s">
-        <v>87</v>
+        <v>76</v>
       </c>
       <c r="R15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="S15" s="2" t="s">
-        <v>88</v>
-      </c>
-      <c r="T15" s="3" t="s">
-        <v>50</v>
+        <v>77</v>
+      </c>
+      <c r="T15" s="2" t="s">
+        <v>35</v>
       </c>
       <c r="U15" s="2" t="s">
-        <v>89</v>
+        <v>78</v>
       </c>
       <c r="V15" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="W15" s="2" t="s">
-        <v>90</v>
+        <v>79</v>
       </c>
       <c r="X15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Y15" s="2" t="s">
-        <v>90</v>
-      </c>
-      <c r="Z15" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="AA15" s="2" t="s">
-        <v>91</v>
-      </c>
-      <c r="AB15" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="16" spans="1:32" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="16" spans="1:32" ht="21" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A16" s="2" t="s">
-        <v>92</v>
+        <v>80</v>
       </c>
       <c r="B16" s="2" t="s">
-        <v>93</v>
+        <v>81</v>
       </c>
       <c r="C16" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D16" s="3" t="s">
-        <v>50</v>
+        <v>47</v>
       </c>
       <c r="E16" s="2" t="s">
         <v>36</v>
       </c>
       <c r="F16" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="17" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="17" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A17" s="2" t="s">
-        <v>94</v>
-      </c>
-      <c r="B17" s="2" t="s">
-        <v>95</v>
+        <v>82</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>83</v>
       </c>
       <c r="C17" s="2" t="s">
         <v>34</v>
       </c>
       <c r="D17" s="3" t="s">
-        <v>35</v>
+        <v>47</v>
       </c>
       <c r="E17" s="2" t="s">
-        <v>96</v>
+        <v>36</v>
       </c>
       <c r="F17" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="18" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="18" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="A18" s="2" t="s">
-        <v>97</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>98</v>
+        <v>84</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>85</v>
       </c>
       <c r="C18" s="2" t="s">
         <v>34</v>
@@ -1486,292 +1275,227 @@
         <v>36</v>
       </c>
       <c r="F18" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="19" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A19" s="5" t="s">
-        <v>99</v>
+        <v>47</v>
+      </c>
+    </row>
+    <row r="19" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A19" s="2" t="s">
+        <v>86</v>
       </c>
       <c r="B19" s="2" t="s">
-        <v>100</v>
-      </c>
-      <c r="C19" s="5" t="s">
-        <v>101</v>
+        <v>87</v>
+      </c>
+      <c r="C19" s="2" t="s">
+        <v>34</v>
       </c>
       <c r="D19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="E19" s="2" t="s">
-        <v>34</v>
+        <v>88</v>
       </c>
       <c r="F19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="G19" s="2" t="s">
-        <v>102</v>
+        <v>36</v>
       </c>
       <c r="H19" s="3" t="s">
-        <v>50</v>
+        <v>35</v>
       </c>
       <c r="I19" s="2" t="s">
-        <v>103</v>
+        <v>38</v>
       </c>
       <c r="J19" s="3" t="s">
         <v>35</v>
       </c>
       <c r="K19" s="2" t="s">
-        <v>104</v>
+        <v>40</v>
       </c>
       <c r="L19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="M19" s="2" t="s">
-        <v>105</v>
-      </c>
-      <c r="N19" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="O19" s="2" t="s">
-        <v>106</v>
-      </c>
-      <c r="P19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="Q19" s="2" t="s">
-        <v>107</v>
-      </c>
-      <c r="R19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="S19" s="2" t="s">
-        <v>108</v>
-      </c>
-      <c r="T19" s="2" t="s">
+    </row>
+    <row r="20" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A20" s="2" t="s">
+        <v>89</v>
+      </c>
+      <c r="B20" s="2" t="s">
+        <v>90</v>
+      </c>
+      <c r="C20" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="D20" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="U19" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="V19" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="W19" s="2" t="s">
-        <v>110</v>
-      </c>
-      <c r="X19" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="20" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A20" s="5" t="s">
-        <v>111</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>112</v>
-      </c>
-      <c r="C20" s="5" t="s">
-        <v>38</v>
-      </c>
-      <c r="D20" s="3" t="s">
-        <v>50</v>
-      </c>
       <c r="E20" s="2" t="s">
-        <v>113</v>
+        <v>36</v>
       </c>
       <c r="F20" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="21" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A21" s="6" t="s">
-        <v>114</v>
-      </c>
-      <c r="B21" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="C21" s="5" t="s">
-        <v>116</v>
-      </c>
-      <c r="D21" s="3" t="s">
         <v>35</v>
       </c>
-      <c r="E21" s="2" t="s">
-        <v>113</v>
-      </c>
-      <c r="F21" s="3" t="s">
+    </row>
+    <row r="21" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A21" s="4" t="s">
+        <v>91</v>
+      </c>
+      <c r="B21" s="5" t="s">
+        <v>92</v>
+      </c>
+      <c r="C21" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="G21" s="2" t="s">
+      <c r="E21" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="H21" s="3" t="s">
+      <c r="F21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="I21" s="2" t="s">
-        <v>117</v>
-      </c>
-      <c r="J21" s="3" t="s">
+      <c r="G21" s="4" t="s">
+        <v>65</v>
+      </c>
+      <c r="H21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="K21" s="2" t="s">
-        <v>109</v>
-      </c>
-      <c r="L21" s="3" t="s">
+      <c r="I21" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="J21" s="6" t="s">
         <v>35</v>
       </c>
-      <c r="M21" s="2" t="s">
-        <v>118</v>
-      </c>
-      <c r="N21" s="3" t="s">
+    </row>
+    <row r="22" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A22" s="4" t="s">
+        <v>93</v>
+      </c>
+      <c r="B22" t="s">
+        <v>99</v>
+      </c>
+      <c r="C22" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D22" s="6" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="22" spans="1:24" ht="21" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A22" s="2" t="s">
-        <v>119</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>120</v>
-      </c>
-      <c r="C22" s="2" t="s">
+      <c r="E22" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="F22" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="23" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A23" s="4" t="s">
+        <v>94</v>
+      </c>
+      <c r="B23" t="s">
+        <v>100</v>
+      </c>
+      <c r="C23" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D22" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E22" s="2" t="s">
+      <c r="D23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E23" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F22" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="23" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A23" s="2" t="s">
-        <v>121</v>
-      </c>
-      <c r="B23" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="C23" s="2" t="s">
+      <c r="F23" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="G23" s="8"/>
+      <c r="H23" s="8"/>
+      <c r="I23" s="8"/>
+      <c r="J23" s="8"/>
+      <c r="K23" s="8"/>
+      <c r="L23" s="8"/>
+    </row>
+    <row r="24" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A24" s="4" t="s">
+        <v>95</v>
+      </c>
+      <c r="B24" t="s">
+        <v>101</v>
+      </c>
+      <c r="C24" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D23" s="3" t="s">
-        <v>50</v>
-      </c>
-      <c r="E23" s="2" t="s">
+      <c r="D24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="E24" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F23" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="24" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A24" s="2" t="s">
-        <v>123</v>
-      </c>
-      <c r="B24" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="C24" s="2" t="s">
+      <c r="F24" s="6" t="s">
+        <v>35</v>
+      </c>
+      <c r="G24" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="H24" s="6" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="25" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A25" s="4" t="s">
+        <v>96</v>
+      </c>
+      <c r="B25" t="s">
+        <v>102</v>
+      </c>
+      <c r="C25" s="4" t="s">
         <v>34</v>
       </c>
-      <c r="D24" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E24" s="2" t="s">
+      <c r="D25" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E25" s="4" t="s">
+        <v>98</v>
+      </c>
+      <c r="F25" s="3" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="26" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="A26" s="4" t="s">
+        <v>97</v>
+      </c>
+      <c r="B26" t="s">
+        <v>103</v>
+      </c>
+      <c r="C26" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="E26" s="4" t="s">
         <v>36</v>
       </c>
-      <c r="F24" s="3" t="s">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="25" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A25" s="2" t="s">
-        <v>125</v>
-      </c>
-      <c r="B25" s="2" t="s">
-        <v>126</v>
-      </c>
-      <c r="C25" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E25" s="2" t="s">
-        <v>127</v>
-      </c>
-      <c r="F25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="G25" s="2" t="s">
-        <v>36</v>
-      </c>
-      <c r="H25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="I25" s="2" t="s">
-        <v>38</v>
-      </c>
-      <c r="J25" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="K25" s="2" t="s">
-        <v>42</v>
-      </c>
-      <c r="L25" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="26" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A26" s="2" t="s">
-        <v>128</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>129</v>
-      </c>
-      <c r="C26" s="2" t="s">
-        <v>34</v>
-      </c>
-      <c r="D26" s="3" t="s">
-        <v>35</v>
-      </c>
-      <c r="E26" s="2" t="s">
-        <v>36</v>
-      </c>
       <c r="F26" s="3" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="27" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B27" s="2"/>
-    </row>
-    <row r="28" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B28" s="2"/>
-    </row>
-    <row r="29" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="A29" s="4"/>
-      <c r="B29" s="4"/>
-      <c r="C29" s="4"/>
-      <c r="D29" s="4"/>
-      <c r="E29" s="4"/>
-      <c r="F29" s="4"/>
-      <c r="G29" s="4"/>
-      <c r="H29" s="4"/>
-      <c r="I29" s="4"/>
-      <c r="J29" s="4"/>
-      <c r="K29" s="4"/>
-      <c r="L29" s="4"/>
-    </row>
-    <row r="30" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="27" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B27" s="7"/>
+    </row>
+    <row r="28" spans="1:12" s="4" customFormat="1" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B28" s="7"/>
+    </row>
+    <row r="29" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+      <c r="B29" s="2"/>
+    </row>
+    <row r="30" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B30" s="2"/>
     </row>
-    <row r="31" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="31" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B31" s="2"/>
     </row>
-    <row r="32" spans="1:24" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
+    <row r="32" spans="1:12" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B32" s="2"/>
     </row>
     <row r="33" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
@@ -4659,24 +4383,6 @@
     </row>
     <row r="994" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
       <c r="B994" s="2"/>
-    </row>
-    <row r="995" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B995" s="2"/>
-    </row>
-    <row r="996" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B996" s="2"/>
-    </row>
-    <row r="997" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B997" s="2"/>
-    </row>
-    <row r="998" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B998" s="2"/>
-    </row>
-    <row r="999" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B999" s="2"/>
-    </row>
-    <row r="1000" spans="2:2" ht="13.5" customHeight="1" x14ac:dyDescent="0.5">
-      <c r="B1000" s="2"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0" footer="0"/>
